--- a/Excel_jumia ANALYSIS.xlsx
+++ b/Excel_jumia ANALYSIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92177783-BA21-45DD-BE99-45401865A258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0B03B2-11C3-495D-BEDC-BCD837A35F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,9 +38,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="389" r:id="rId8"/>
-    <pivotCache cacheId="390" r:id="rId9"/>
-    <pivotCache cacheId="391" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
+    <pivotCache cacheId="2" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="165">
   <si>
     <t>Product</t>
   </si>
@@ -700,6 +700,18 @@
       <t>PRODUCT ANALYSIS</t>
     </r>
   </si>
+  <si>
+    <t>AVERAGE RATING= 3.8</t>
+  </si>
+  <si>
+    <t>AVERAGE DISCOUNT%=36%</t>
+  </si>
+  <si>
+    <t>TOTAL NUMBER OF PRODUCTS=74</t>
+  </si>
+  <si>
+    <t>TOTAL NO OF REVIEWS  =334</t>
+  </si>
 </sst>
 </file>
 
@@ -958,7 +970,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1162,6 +1174,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1323,7 +1341,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1365,18 +1383,19 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="43"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="43"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1422,102 +1441,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <font>
-        <color rgb="FFFFCCCC"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFCCCC"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFCCCC"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFCCCC"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFCCCC"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFCCCC"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFCCCC"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFCCCC"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFCCCC"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFCCCC"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFCCCC"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFCCCC"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFCCCC"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFCCCC"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFCCCC"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFCCCC"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFCCCC"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFCCCC"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFCCCC"/>
-      </font>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FFFFCCCC"/>
@@ -3013,26 +2937,11 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:solidFill>
+      <a:schemeClr val="accent3">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
@@ -15164,8 +15073,7 @@
   <c:spPr>
     <a:solidFill>
       <a:schemeClr val="accent3">
-        <a:lumMod val="60000"/>
-        <a:lumOff val="40000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -15951,8 +15859,7 @@
   <c:spPr>
     <a:solidFill>
       <a:schemeClr val="accent3">
-        <a:lumMod val="60000"/>
-        <a:lumOff val="40000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -16073,8 +15980,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.153795288990796E-2"/>
-          <c:y val="0.54208628291396022"/>
+          <c:x val="0.22392079850100893"/>
+          <c:y val="0.22009394223797815"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -22460,8 +22367,7 @@
   <c:spPr>
     <a:solidFill>
       <a:schemeClr val="accent3">
-        <a:lumMod val="60000"/>
-        <a:lumOff val="40000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -23649,8 +23555,7 @@
   <c:spPr>
     <a:solidFill>
       <a:schemeClr val="accent3">
-        <a:lumMod val="60000"/>
-        <a:lumOff val="40000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -24458,26 +24363,11 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:solidFill>
+      <a:schemeClr val="accent3">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
@@ -25418,7 +25308,17 @@
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14078854771974464"/>
+          <c:y val="0.42800328823124273"/>
+          <c:w val="0.30862451145571862"/>
+          <c:h val="0.4213113558821881"/>
+        </c:manualLayout>
+      </c:layout>
       <c:doughnutChart>
         <c:varyColors val="1"/>
         <c:ser>
@@ -25685,7 +25585,7 @@
           <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
-        <c:holeSize val="50"/>
+        <c:holeSize val="46"/>
       </c:doughnutChart>
       <c:spPr>
         <a:noFill/>
@@ -25743,25 +25643,11 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:solidFill>
+      <a:schemeClr val="accent3">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="dk1">
@@ -39148,15 +39034,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
+      <xdr:colOff>219076</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>409577</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>33339</xdr:rowOff>
+      <xdr:colOff>457202</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -39193,8 +39079,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -39300,15 +39186,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>628649</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>157164</xdr:rowOff>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>585788</xdr:colOff>
+      <xdr:colOff>547688</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>109539</xdr:rowOff>
+      <xdr:rowOff>133352</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -39346,10 +39232,10 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="22" name="Rating  Category 3">
@@ -39372,7 +39258,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -39416,18 +39302,18 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>204789</xdr:colOff>
+      <xdr:colOff>271464</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>4764</xdr:rowOff>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>90489</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>157164</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="24" name="Review 2 2">
@@ -39450,7 +39336,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -39460,8 +39346,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9920289" y="1271589"/>
-              <a:ext cx="1828800" cy="1690686"/>
+              <a:off x="9966554" y="1581345"/>
+              <a:ext cx="1824717" cy="1679023"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -39494,15 +39380,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>100011</xdr:colOff>
+      <xdr:colOff>290511</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>633411</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>176211</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -39538,8 +39424,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7872411" y="4862512"/>
-              <a:ext cx="1828800" cy="1295399"/>
+              <a:off x="8046582" y="5021522"/>
+              <a:ext cx="1824719" cy="1286068"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -39580,7 +39466,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>561974</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -39817,16 +39703,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>147638</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>528638</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>71439</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -45830,7 +45716,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable5" cacheId="389" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -46169,7 +46055,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000003000000}" name="PivotTable9" cacheId="390" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000003000000}" name="PivotTable9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D113" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -46665,7 +46551,7 @@
     <dataField name="Sum of Rating" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="19">
+    <format dxfId="0">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -46679,12 +46565,12 @@
     </format>
   </formats>
   <conditionalFormats count="3">
-    <conditionalFormat type="all" priority="1">
+    <conditionalFormat type="all" priority="3">
       <pivotAreas count="1">
-        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <pivotArea outline="0" fieldPosition="0">
           <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="2"/>
+            <reference field="4294967294" count="1">
+              <x v="0"/>
             </reference>
           </references>
         </pivotArea>
@@ -46701,12 +46587,12 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat type="all" priority="3">
+    <conditionalFormat type="all" priority="1">
       <pivotAreas count="1">
-        <pivotArea outline="0" fieldPosition="0">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="1">
-            <reference field="4294967294" count="1">
-              <x v="0"/>
+            <reference field="4294967294" count="1" selected="0">
+              <x v="2"/>
             </reference>
           </references>
         </pivotArea>
@@ -46726,7 +46612,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable6" cacheId="390" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:I115" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -47319,796 +47205,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000002000000}" name="PivotTable13" cacheId="391" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="D116:E120" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="26">
-        <item x="14"/>
-        <item x="18"/>
-        <item x="0"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="9"/>
-        <item x="3"/>
-        <item x="10"/>
-        <item x="20"/>
-        <item x="7"/>
-        <item x="13"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="16"/>
-        <item x="2"/>
-        <item x="17"/>
-        <item x="19"/>
-        <item x="8"/>
-        <item x="12"/>
-        <item x="15"/>
-        <item x="6"/>
-        <item x="21"/>
-        <item x="24"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Review 2" fld="7" baseField="5" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000001000000}" name="PivotTable12" cacheId="391" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B88:D103" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="5"/>
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="15">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Count of Discount" fld="3" subtotal="count" baseField="5" baseItem="2"/>
-    <dataField name="Count of Review 2" fld="7" subtotal="count" baseField="5" baseItem="2"/>
-  </dataFields>
-  <chartFormats count="22">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable11" cacheId="391" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B60:C61" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="10">
-    <pivotField showAll="0">
-      <items count="114">
-        <item x="111"/>
-        <item x="112"/>
-        <item x="110"/>
-        <item x="38"/>
-        <item x="11"/>
-        <item x="0"/>
-        <item x="27"/>
-        <item x="31"/>
-        <item x="61"/>
-        <item x="57"/>
-        <item x="9"/>
-        <item x="6"/>
-        <item x="101"/>
-        <item x="80"/>
-        <item x="5"/>
-        <item x="100"/>
-        <item x="91"/>
-        <item x="47"/>
-        <item x="73"/>
-        <item x="66"/>
-        <item x="65"/>
-        <item x="19"/>
-        <item x="74"/>
-        <item x="20"/>
-        <item x="94"/>
-        <item x="12"/>
-        <item x="40"/>
-        <item x="21"/>
-        <item x="58"/>
-        <item x="28"/>
-        <item x="34"/>
-        <item x="33"/>
-        <item x="79"/>
-        <item x="60"/>
-        <item x="106"/>
-        <item x="90"/>
-        <item x="45"/>
-        <item x="76"/>
-        <item x="71"/>
-        <item x="97"/>
-        <item x="99"/>
-        <item x="67"/>
-        <item x="56"/>
-        <item x="15"/>
-        <item x="64"/>
-        <item x="96"/>
-        <item x="42"/>
-        <item x="78"/>
-        <item x="108"/>
-        <item x="49"/>
-        <item x="46"/>
-        <item x="83"/>
-        <item x="103"/>
-        <item x="44"/>
-        <item x="55"/>
-        <item x="36"/>
-        <item x="48"/>
-        <item x="75"/>
-        <item x="53"/>
-        <item x="7"/>
-        <item x="35"/>
-        <item x="72"/>
-        <item x="25"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="10"/>
-        <item x="81"/>
-        <item x="62"/>
-        <item x="98"/>
-        <item x="68"/>
-        <item x="24"/>
-        <item x="17"/>
-        <item x="13"/>
-        <item x="8"/>
-        <item x="39"/>
-        <item x="32"/>
-        <item x="22"/>
-        <item x="102"/>
-        <item x="18"/>
-        <item x="77"/>
-        <item x="1"/>
-        <item x="95"/>
-        <item x="41"/>
-        <item x="14"/>
-        <item x="86"/>
-        <item x="29"/>
-        <item x="52"/>
-        <item x="59"/>
-        <item x="82"/>
-        <item x="84"/>
-        <item x="16"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="93"/>
-        <item x="26"/>
-        <item x="88"/>
-        <item x="37"/>
-        <item x="89"/>
-        <item x="43"/>
-        <item x="104"/>
-        <item x="54"/>
-        <item x="105"/>
-        <item x="63"/>
-        <item x="87"/>
-        <item x="92"/>
-        <item x="107"/>
-        <item x="85"/>
-        <item x="69"/>
-        <item x="3"/>
-        <item x="70"/>
-        <item x="109"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="26">
-        <item x="14"/>
-        <item x="18"/>
-        <item x="0"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="9"/>
-        <item x="3"/>
-        <item x="10"/>
-        <item x="20"/>
-        <item x="7"/>
-        <item x="13"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="16"/>
-        <item x="2"/>
-        <item x="17"/>
-        <item x="19"/>
-        <item x="8"/>
-        <item x="12"/>
-        <item x="15"/>
-        <item x="6"/>
-        <item x="21"/>
-        <item x="24"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Rating" fld="8" baseField="0" baseItem="1"/>
-    <dataField name="Sum of Review 2" fld="7" baseField="0" baseItem="1"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000003000000}" name="PivotTable8" cacheId="390" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000003000000}" name="PivotTable8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A5:B52" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField showAll="0">
@@ -48541,8 +47638,797 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000002000000}" name="PivotTable13" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="D116:E120" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="26">
+        <item x="14"/>
+        <item x="18"/>
+        <item x="0"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="20"/>
+        <item x="7"/>
+        <item x="13"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="16"/>
+        <item x="2"/>
+        <item x="17"/>
+        <item x="19"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="21"/>
+        <item x="24"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Review 2" fld="7" baseField="5" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000001000000}" name="PivotTable12" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B88:D103" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="5"/>
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count of Discount" fld="3" subtotal="count" baseField="5" baseItem="2"/>
+    <dataField name="Count of Review 2" fld="7" subtotal="count" baseField="5" baseItem="2"/>
+  </dataFields>
+  <chartFormats count="22">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable11" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B60:C61" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="10">
+    <pivotField showAll="0">
+      <items count="114">
+        <item x="111"/>
+        <item x="112"/>
+        <item x="110"/>
+        <item x="38"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="27"/>
+        <item x="31"/>
+        <item x="61"/>
+        <item x="57"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="101"/>
+        <item x="80"/>
+        <item x="5"/>
+        <item x="100"/>
+        <item x="91"/>
+        <item x="47"/>
+        <item x="73"/>
+        <item x="66"/>
+        <item x="65"/>
+        <item x="19"/>
+        <item x="74"/>
+        <item x="20"/>
+        <item x="94"/>
+        <item x="12"/>
+        <item x="40"/>
+        <item x="21"/>
+        <item x="58"/>
+        <item x="28"/>
+        <item x="34"/>
+        <item x="33"/>
+        <item x="79"/>
+        <item x="60"/>
+        <item x="106"/>
+        <item x="90"/>
+        <item x="45"/>
+        <item x="76"/>
+        <item x="71"/>
+        <item x="97"/>
+        <item x="99"/>
+        <item x="67"/>
+        <item x="56"/>
+        <item x="15"/>
+        <item x="64"/>
+        <item x="96"/>
+        <item x="42"/>
+        <item x="78"/>
+        <item x="108"/>
+        <item x="49"/>
+        <item x="46"/>
+        <item x="83"/>
+        <item x="103"/>
+        <item x="44"/>
+        <item x="55"/>
+        <item x="36"/>
+        <item x="48"/>
+        <item x="75"/>
+        <item x="53"/>
+        <item x="7"/>
+        <item x="35"/>
+        <item x="72"/>
+        <item x="25"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="10"/>
+        <item x="81"/>
+        <item x="62"/>
+        <item x="98"/>
+        <item x="68"/>
+        <item x="24"/>
+        <item x="17"/>
+        <item x="13"/>
+        <item x="8"/>
+        <item x="39"/>
+        <item x="32"/>
+        <item x="22"/>
+        <item x="102"/>
+        <item x="18"/>
+        <item x="77"/>
+        <item x="1"/>
+        <item x="95"/>
+        <item x="41"/>
+        <item x="14"/>
+        <item x="86"/>
+        <item x="29"/>
+        <item x="52"/>
+        <item x="59"/>
+        <item x="82"/>
+        <item x="84"/>
+        <item x="16"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="93"/>
+        <item x="26"/>
+        <item x="88"/>
+        <item x="37"/>
+        <item x="89"/>
+        <item x="43"/>
+        <item x="104"/>
+        <item x="54"/>
+        <item x="105"/>
+        <item x="63"/>
+        <item x="87"/>
+        <item x="92"/>
+        <item x="107"/>
+        <item x="85"/>
+        <item x="69"/>
+        <item x="3"/>
+        <item x="70"/>
+        <item x="109"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="26">
+        <item x="14"/>
+        <item x="18"/>
+        <item x="0"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="20"/>
+        <item x="7"/>
+        <item x="13"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="16"/>
+        <item x="2"/>
+        <item x="17"/>
+        <item x="19"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="21"/>
+        <item x="24"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Rating" fld="8" baseField="0" baseItem="1"/>
+    <dataField name="Sum of Review 2" fld="7" baseField="0" baseItem="1"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000002000000}" name="PivotTable15" cacheId="391" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000002000000}" name="PivotTable15" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A269:B383" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -49070,7 +48956,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000001000000}" name="PivotTable14" cacheId="391" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000001000000}" name="PivotTable14" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A150:B260" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -52202,7 +52088,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable10" cacheId="391" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable10" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A116:D120" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0">
@@ -52997,10 +52883,10 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Discount category 3" xr10:uid="{00000000-0014-0000-FFFF-FFFF01000000}" cache="Slicer_Discount_category" caption="Discount category" rowHeight="241300"/>
-  <slicer name="Product 2" xr10:uid="{00000000-0014-0000-FFFF-FFFF02000000}" cache="Slicer_Product" caption="Product" style="SlicerStyleDark1" rowHeight="241300"/>
-  <slicer name="Rating  Category 3" xr10:uid="{00000000-0014-0000-FFFF-FFFF03000000}" cache="Slicer_Rating__Category2" caption="Rating  Category" rowHeight="241300"/>
-  <slicer name="Review 2 2" xr10:uid="{00000000-0014-0000-FFFF-FFFF04000000}" cache="Slicer_Review_21" caption="Review 2" rowHeight="241300"/>
+  <slicer name="Discount category 3" xr10:uid="{00000000-0014-0000-FFFF-FFFF01000000}" cache="Slicer_Discount_category" caption="Discount category" style="SlicerStyleOther1" rowHeight="241300"/>
+  <slicer name="Product 2" xr10:uid="{00000000-0014-0000-FFFF-FFFF02000000}" cache="Slicer_Product" caption="Product" style="SlicerStyleOther1" rowHeight="241300"/>
+  <slicer name="Rating  Category 3" xr10:uid="{00000000-0014-0000-FFFF-FFFF03000000}" cache="Slicer_Rating__Category2" caption="Rating  Category" style="SlicerStyleOther1" rowHeight="241300"/>
+  <slicer name="Review 2 2" xr10:uid="{00000000-0014-0000-FFFF-FFFF04000000}" cache="Slicer_Review_21" caption="Review 2" style="SlicerStyleOther1" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -57366,12 +57252,12 @@
   </sheetData>
   <autoFilter ref="I1:I116" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -57466,55 +57352,101 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" showRuler="0" topLeftCell="A35" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="9.06640625" style="35"/>
+    <col min="1" max="16384" width="9.06640625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+    </row>
+    <row r="2" spans="1:16" ht="28.15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A3" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="F3" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="J3" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="N3" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D58" s="35" t="s">
+      <c r="D58" s="38" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="59" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D59" s="35">
+      <c r="D59" s="38">
         <v>3.6966101694915277</v>
       </c>
     </row>
     <row r="61" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D61" s="35">
+      <c r="D61" s="38">
         <v>4.1437500000000007</v>
       </c>
     </row>
     <row r="62" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D62" s="35">
+      <c r="D62" s="38">
         <v>3.8422018348623892</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F3:H4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="N3:P4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
-        <x14:slicer r:id="rId2"/>
+        <x14:slicer r:id="rId3"/>
       </x14:slicerList>
     </ext>
   </extLst>
@@ -57525,8 +57457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -57601,7 +57533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:I115"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
+    <sheetView topLeftCell="A167" workbookViewId="0">
       <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
@@ -57667,20 +57599,16 @@
       <c r="A6" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41">
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6">
         <v>4.5</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41">
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6">
         <v>4.5</v>
       </c>
     </row>
@@ -57688,20 +57616,16 @@
       <c r="A7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7">
         <v>4.7</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7">
         <v>4.7</v>
       </c>
     </row>
@@ -57709,20 +57633,16 @@
       <c r="A8" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41">
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8">
         <v>4.5</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41">
+      <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8">
         <v>4.5</v>
       </c>
     </row>
@@ -57730,20 +57650,16 @@
       <c r="A9" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9">
         <v>3.8</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41">
+      <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9">
         <v>3.8</v>
       </c>
     </row>
@@ -57751,20 +57667,16 @@
       <c r="A10" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41">
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10">
         <v>4.7</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41">
+      <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10">
         <v>4.7</v>
       </c>
     </row>
@@ -57772,20 +57684,16 @@
       <c r="A11" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41">
+      <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11">
         <v>2.8</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11">
         <v>2.8</v>
       </c>
     </row>
@@ -57793,20 +57701,16 @@
       <c r="A12" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12">
         <v>3.8</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41">
+      <c r="H12">
         <v>1</v>
       </c>
-      <c r="I12" s="41">
+      <c r="I12">
         <v>3.8</v>
       </c>
     </row>
@@ -57814,20 +57718,16 @@
       <c r="A13" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13">
         <v>3.8</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41">
+      <c r="H13">
         <v>1</v>
       </c>
-      <c r="I13" s="41">
+      <c r="I13">
         <v>3.8</v>
       </c>
     </row>
@@ -57835,20 +57735,16 @@
       <c r="A14" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41">
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41">
+      <c r="H14">
         <v>1</v>
       </c>
-      <c r="I14" s="41">
+      <c r="I14">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -57856,20 +57752,16 @@
       <c r="A15" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15">
         <v>3.8</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41">
+      <c r="H15">
         <v>1</v>
       </c>
-      <c r="I15" s="41">
+      <c r="I15">
         <v>3.8</v>
       </c>
     </row>
@@ -57877,20 +57769,16 @@
       <c r="A16" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16">
         <v>3.8</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41">
+      <c r="H16">
         <v>1</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16">
         <v>3.8</v>
       </c>
     </row>
@@ -57898,20 +57786,16 @@
       <c r="A17" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17">
         <v>4</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41">
+      <c r="H17">
         <v>1</v>
       </c>
-      <c r="I17" s="41">
+      <c r="I17">
         <v>4</v>
       </c>
     </row>
@@ -57919,20 +57803,16 @@
       <c r="A18" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18">
         <v>3.8</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41">
+      <c r="H18">
         <v>1</v>
       </c>
-      <c r="I18" s="41">
+      <c r="I18">
         <v>3.8</v>
       </c>
     </row>
@@ -57940,20 +57820,16 @@
       <c r="A19" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19">
         <v>3.8</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41">
+      <c r="H19">
         <v>1</v>
       </c>
-      <c r="I19" s="41">
+      <c r="I19">
         <v>3.8</v>
       </c>
     </row>
@@ -57961,20 +57837,16 @@
       <c r="A20" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="41">
+      <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20">
         <v>3.8</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41">
+      <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20" s="41">
+      <c r="I20">
         <v>3.8</v>
       </c>
     </row>
@@ -57982,20 +57854,16 @@
       <c r="A21" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21">
         <v>3.8</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41">
+      <c r="H21">
         <v>1</v>
       </c>
-      <c r="I21" s="41">
+      <c r="I21">
         <v>3.8</v>
       </c>
     </row>
@@ -58003,20 +57871,16 @@
       <c r="A22" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="41">
+      <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22">
         <v>3</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41">
+      <c r="H22">
         <v>1</v>
       </c>
-      <c r="I22" s="41">
+      <c r="I22">
         <v>3</v>
       </c>
     </row>
@@ -58024,20 +57888,16 @@
       <c r="A23" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41">
+      <c r="F23">
         <v>1</v>
       </c>
-      <c r="G23" s="41">
+      <c r="G23">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H23" s="41">
+      <c r="H23">
         <v>1</v>
       </c>
-      <c r="I23" s="41">
+      <c r="I23">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -58045,20 +57905,16 @@
       <c r="A24" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41">
+      <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41">
+      <c r="H24">
         <v>1</v>
       </c>
-      <c r="I24" s="41">
+      <c r="I24">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -58066,20 +57922,16 @@
       <c r="A25" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="41">
+      <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="41">
+      <c r="C25">
         <v>3.8</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41">
+      <c r="H25">
         <v>1</v>
       </c>
-      <c r="I25" s="41">
+      <c r="I25">
         <v>3.8</v>
       </c>
     </row>
@@ -58087,20 +57939,16 @@
       <c r="A26" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="41">
+      <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="41">
+      <c r="C26">
         <v>3.3</v>
       </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41">
+      <c r="H26">
         <v>1</v>
       </c>
-      <c r="I26" s="41">
+      <c r="I26">
         <v>3.3</v>
       </c>
     </row>
@@ -58108,20 +57956,16 @@
       <c r="A27" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="41">
+      <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="41">
+      <c r="C27">
         <v>3.8</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41">
+      <c r="H27">
         <v>1</v>
       </c>
-      <c r="I27" s="41">
+      <c r="I27">
         <v>3.8</v>
       </c>
     </row>
@@ -58129,20 +57973,16 @@
       <c r="A28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41">
+      <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" s="41">
+      <c r="E28">
         <v>4.8</v>
       </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41">
+      <c r="H28">
         <v>1</v>
       </c>
-      <c r="I28" s="41">
+      <c r="I28">
         <v>4.8</v>
       </c>
     </row>
@@ -58150,20 +57990,16 @@
       <c r="A29" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29" s="41">
+      <c r="C29">
         <v>3.8</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41">
+      <c r="H29">
         <v>1</v>
       </c>
-      <c r="I29" s="41">
+      <c r="I29">
         <v>3.8</v>
       </c>
     </row>
@@ -58171,20 +58007,16 @@
       <c r="A30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="41">
+      <c r="C30">
         <v>3.3</v>
       </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41">
+      <c r="H30">
         <v>1</v>
       </c>
-      <c r="I30" s="41">
+      <c r="I30">
         <v>3.3</v>
       </c>
     </row>
@@ -58192,20 +58024,16 @@
       <c r="A31" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41">
+      <c r="F31">
         <v>1</v>
       </c>
-      <c r="G31" s="41">
+      <c r="G31">
         <v>2.5</v>
       </c>
-      <c r="H31" s="41">
+      <c r="H31">
         <v>1</v>
       </c>
-      <c r="I31" s="41">
+      <c r="I31">
         <v>2.5</v>
       </c>
     </row>
@@ -58213,20 +58041,16 @@
       <c r="A32" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="41">
+      <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="41">
+      <c r="C32">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41">
+      <c r="H32">
         <v>1</v>
       </c>
-      <c r="I32" s="41">
+      <c r="I32">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -58234,20 +58058,16 @@
       <c r="A33" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41">
+      <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33" s="41">
+      <c r="E33">
         <v>4.5</v>
       </c>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41">
+      <c r="H33">
         <v>1</v>
       </c>
-      <c r="I33" s="41">
+      <c r="I33">
         <v>4.5</v>
       </c>
     </row>
@@ -58255,20 +58075,16 @@
       <c r="A34" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41">
+      <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34">
         <v>4.7</v>
       </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41">
+      <c r="H34">
         <v>1</v>
       </c>
-      <c r="I34" s="41">
+      <c r="I34">
         <v>4.7</v>
       </c>
     </row>
@@ -58276,20 +58092,16 @@
       <c r="A35" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="41">
+      <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" s="41">
+      <c r="C35">
         <v>3.8</v>
       </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41">
+      <c r="H35">
         <v>1</v>
       </c>
-      <c r="I35" s="41">
+      <c r="I35">
         <v>3.8</v>
       </c>
     </row>
@@ -58297,20 +58109,16 @@
       <c r="A36" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41">
+      <c r="F36">
         <v>1</v>
       </c>
-      <c r="G36" s="41">
+      <c r="G36">
         <v>2.1</v>
       </c>
-      <c r="H36" s="41">
+      <c r="H36">
         <v>1</v>
       </c>
-      <c r="I36" s="41">
+      <c r="I36">
         <v>2.1</v>
       </c>
     </row>
@@ -58318,20 +58126,16 @@
       <c r="A37" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="41">
+      <c r="B37">
         <v>1</v>
       </c>
-      <c r="C37" s="41">
+      <c r="C37">
         <v>3.8</v>
       </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41">
+      <c r="H37">
         <v>1</v>
       </c>
-      <c r="I37" s="41">
+      <c r="I37">
         <v>3.8</v>
       </c>
     </row>
@@ -58339,20 +58143,16 @@
       <c r="A38" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="41">
+      <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38" s="41">
+      <c r="C38">
         <v>3.8</v>
       </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41">
+      <c r="H38">
         <v>1</v>
       </c>
-      <c r="I38" s="41">
+      <c r="I38">
         <v>3.8</v>
       </c>
     </row>
@@ -58360,20 +58160,16 @@
       <c r="A39" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="41">
+      <c r="B39">
         <v>1</v>
       </c>
-      <c r="C39" s="41">
+      <c r="C39">
         <v>3.8</v>
       </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41">
+      <c r="H39">
         <v>1</v>
       </c>
-      <c r="I39" s="41">
+      <c r="I39">
         <v>3.8</v>
       </c>
     </row>
@@ -58381,20 +58177,16 @@
       <c r="A40" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="41">
+      <c r="B40">
         <v>1</v>
       </c>
-      <c r="C40" s="41">
+      <c r="C40">
         <v>3.8</v>
       </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41">
+      <c r="H40">
         <v>1</v>
       </c>
-      <c r="I40" s="41">
+      <c r="I40">
         <v>3.8</v>
       </c>
     </row>
@@ -58402,20 +58194,16 @@
       <c r="A41" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41">
+      <c r="F41">
         <v>1</v>
       </c>
-      <c r="G41" s="41">
+      <c r="G41">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H41" s="41">
+      <c r="H41">
         <v>1</v>
       </c>
-      <c r="I41" s="41">
+      <c r="I41">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -58423,20 +58211,16 @@
       <c r="A42" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B42" s="41">
+      <c r="B42">
         <v>1</v>
       </c>
-      <c r="C42" s="41">
+      <c r="C42">
         <v>3.8</v>
       </c>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41">
+      <c r="H42">
         <v>1</v>
       </c>
-      <c r="I42" s="41">
+      <c r="I42">
         <v>3.8</v>
       </c>
     </row>
@@ -58444,20 +58228,16 @@
       <c r="A43" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="B43" s="41">
+      <c r="B43">
         <v>1</v>
       </c>
-      <c r="C43" s="41">
+      <c r="C43">
         <v>3.8</v>
       </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41">
+      <c r="H43">
         <v>1</v>
       </c>
-      <c r="I43" s="41">
+      <c r="I43">
         <v>3.8</v>
       </c>
     </row>
@@ -58465,20 +58245,16 @@
       <c r="A44" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41">
+      <c r="F44">
         <v>1</v>
       </c>
-      <c r="G44" s="41">
+      <c r="G44">
         <v>2.6</v>
       </c>
-      <c r="H44" s="41">
+      <c r="H44">
         <v>1</v>
       </c>
-      <c r="I44" s="41">
+      <c r="I44">
         <v>2.6</v>
       </c>
     </row>
@@ -58486,20 +58262,16 @@
       <c r="A45" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="41">
+      <c r="B45">
         <v>1</v>
       </c>
-      <c r="C45" s="41">
+      <c r="C45">
         <v>3.8</v>
       </c>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41">
+      <c r="H45">
         <v>1</v>
       </c>
-      <c r="I45" s="41">
+      <c r="I45">
         <v>3.8</v>
       </c>
     </row>
@@ -58507,20 +58279,16 @@
       <c r="A46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41">
+      <c r="D46">
         <v>1</v>
       </c>
-      <c r="E46" s="41">
+      <c r="E46">
         <v>5</v>
       </c>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41">
+      <c r="H46">
         <v>1</v>
       </c>
-      <c r="I46" s="41">
+      <c r="I46">
         <v>5</v>
       </c>
     </row>
@@ -58528,20 +58296,16 @@
       <c r="A47" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41">
+      <c r="F47">
         <v>1</v>
       </c>
-      <c r="G47" s="41">
+      <c r="G47">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H47" s="41">
+      <c r="H47">
         <v>1</v>
       </c>
-      <c r="I47" s="41">
+      <c r="I47">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -58549,20 +58313,16 @@
       <c r="A48" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="41">
+      <c r="B48">
         <v>1</v>
       </c>
-      <c r="C48" s="41">
+      <c r="C48">
         <v>3.8</v>
       </c>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41">
+      <c r="H48">
         <v>1</v>
       </c>
-      <c r="I48" s="41">
+      <c r="I48">
         <v>3.8</v>
       </c>
     </row>
@@ -58570,20 +58330,16 @@
       <c r="A49" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="41">
+      <c r="B49">
         <v>1</v>
       </c>
-      <c r="C49" s="41">
+      <c r="C49">
         <v>3.8</v>
       </c>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41">
+      <c r="H49">
         <v>1</v>
       </c>
-      <c r="I49" s="41">
+      <c r="I49">
         <v>3.8</v>
       </c>
     </row>
@@ -58591,20 +58347,16 @@
       <c r="A50" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41">
+      <c r="D50">
         <v>1</v>
       </c>
-      <c r="E50" s="41">
+      <c r="E50">
         <v>5</v>
       </c>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41">
+      <c r="H50">
         <v>1</v>
       </c>
-      <c r="I50" s="41">
+      <c r="I50">
         <v>5</v>
       </c>
     </row>
@@ -58612,20 +58364,16 @@
       <c r="A51" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="41">
+      <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51" s="41">
+      <c r="C51">
         <v>3.8</v>
       </c>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41">
+      <c r="H51">
         <v>1</v>
       </c>
-      <c r="I51" s="41">
+      <c r="I51">
         <v>3.8</v>
       </c>
     </row>
@@ -58633,20 +58381,16 @@
       <c r="A52" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="41">
+      <c r="B52">
         <v>1</v>
       </c>
-      <c r="C52" s="41">
+      <c r="C52">
         <v>3.8</v>
       </c>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41">
+      <c r="H52">
         <v>1</v>
       </c>
-      <c r="I52" s="41">
+      <c r="I52">
         <v>3.8</v>
       </c>
     </row>
@@ -58654,20 +58398,16 @@
       <c r="A53" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="41">
+      <c r="B53">
         <v>1</v>
       </c>
-      <c r="C53" s="41">
+      <c r="C53">
         <v>3.8</v>
       </c>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41">
+      <c r="H53">
         <v>1</v>
       </c>
-      <c r="I53" s="41">
+      <c r="I53">
         <v>3.8</v>
       </c>
     </row>
@@ -58675,20 +58415,16 @@
       <c r="A54" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="B54" s="41">
+      <c r="B54">
         <v>1</v>
       </c>
-      <c r="C54" s="41">
+      <c r="C54">
         <v>3.8</v>
       </c>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41">
+      <c r="H54">
         <v>1</v>
       </c>
-      <c r="I54" s="41">
+      <c r="I54">
         <v>3.8</v>
       </c>
     </row>
@@ -58696,20 +58432,16 @@
       <c r="A55" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="41">
+      <c r="B55">
         <v>1</v>
       </c>
-      <c r="C55" s="41">
+      <c r="C55">
         <v>3.8</v>
       </c>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41">
+      <c r="H55">
         <v>1</v>
       </c>
-      <c r="I55" s="41">
+      <c r="I55">
         <v>3.8</v>
       </c>
     </row>
@@ -58717,20 +58449,16 @@
       <c r="A56" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="41">
+      <c r="B56">
         <v>1</v>
       </c>
-      <c r="C56" s="41">
+      <c r="C56">
         <v>3.8</v>
       </c>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41">
+      <c r="H56">
         <v>1</v>
       </c>
-      <c r="I56" s="41">
+      <c r="I56">
         <v>3.8</v>
       </c>
     </row>
@@ -58738,20 +58466,16 @@
       <c r="A57" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="41">
+      <c r="B57">
         <v>1</v>
       </c>
-      <c r="C57" s="41">
+      <c r="C57">
         <v>3.8</v>
       </c>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41">
+      <c r="H57">
         <v>1</v>
       </c>
-      <c r="I57" s="41">
+      <c r="I57">
         <v>3.8</v>
       </c>
     </row>
@@ -58759,20 +58483,16 @@
       <c r="A58" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="41">
+      <c r="D58">
         <v>1</v>
       </c>
-      <c r="E58" s="41">
+      <c r="E58">
         <v>5</v>
       </c>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41">
+      <c r="H58">
         <v>1</v>
       </c>
-      <c r="I58" s="41">
+      <c r="I58">
         <v>5</v>
       </c>
     </row>
@@ -58780,20 +58500,16 @@
       <c r="A59" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B59" s="41">
+      <c r="B59">
         <v>1</v>
       </c>
-      <c r="C59" s="41">
+      <c r="C59">
         <v>3.8</v>
       </c>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41">
+      <c r="H59">
         <v>1</v>
       </c>
-      <c r="I59" s="41">
+      <c r="I59">
         <v>3.8</v>
       </c>
     </row>
@@ -58801,20 +58517,16 @@
       <c r="A60" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B60" s="41">
+      <c r="B60">
         <v>1</v>
       </c>
-      <c r="C60" s="41">
+      <c r="C60">
         <v>3.8</v>
       </c>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41">
+      <c r="H60">
         <v>1</v>
       </c>
-      <c r="I60" s="41">
+      <c r="I60">
         <v>3.8</v>
       </c>
     </row>
@@ -58822,20 +58534,16 @@
       <c r="A61" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="41">
+      <c r="B61">
         <v>1</v>
       </c>
-      <c r="C61" s="41">
+      <c r="C61">
         <v>3.8</v>
       </c>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41">
+      <c r="H61">
         <v>1</v>
       </c>
-      <c r="I61" s="41">
+      <c r="I61">
         <v>3.8</v>
       </c>
     </row>
@@ -58843,20 +58551,16 @@
       <c r="A62" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="41">
+      <c r="B62">
         <v>1</v>
       </c>
-      <c r="C62" s="41">
+      <c r="C62">
         <v>4</v>
       </c>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="41"/>
-      <c r="H62" s="41">
+      <c r="H62">
         <v>1</v>
       </c>
-      <c r="I62" s="41">
+      <c r="I62">
         <v>4</v>
       </c>
     </row>
@@ -58864,20 +58568,16 @@
       <c r="A63" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="41">
+      <c r="D63">
         <v>1</v>
       </c>
-      <c r="E63" s="41">
+      <c r="E63">
         <v>5</v>
       </c>
-      <c r="F63" s="41"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="41">
+      <c r="H63">
         <v>1</v>
       </c>
-      <c r="I63" s="41">
+      <c r="I63">
         <v>5</v>
       </c>
     </row>
@@ -58885,20 +58585,16 @@
       <c r="A64" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="41"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="41">
+      <c r="F64">
         <v>1</v>
       </c>
-      <c r="G64" s="41">
+      <c r="G64">
         <v>2.1</v>
       </c>
-      <c r="H64" s="41">
+      <c r="H64">
         <v>1</v>
       </c>
-      <c r="I64" s="41">
+      <c r="I64">
         <v>2.1</v>
       </c>
     </row>
@@ -58906,20 +58602,16 @@
       <c r="A65" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B65" s="41"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="41">
+      <c r="D65">
         <v>1</v>
       </c>
-      <c r="E65" s="41">
+      <c r="E65">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41">
+      <c r="H65">
         <v>1</v>
       </c>
-      <c r="I65" s="41">
+      <c r="I65">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -58927,20 +58619,16 @@
       <c r="A66" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B66" s="41">
+      <c r="B66">
         <v>1</v>
       </c>
-      <c r="C66" s="41">
+      <c r="C66">
         <v>4.3</v>
       </c>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41">
+      <c r="H66">
         <v>1</v>
       </c>
-      <c r="I66" s="41">
+      <c r="I66">
         <v>4.3</v>
       </c>
     </row>
@@ -58948,20 +58636,16 @@
       <c r="A67" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B67" s="41">
+      <c r="B67">
         <v>1</v>
       </c>
-      <c r="C67" s="41">
+      <c r="C67">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41">
+      <c r="H67">
         <v>1</v>
       </c>
-      <c r="I67" s="41">
+      <c r="I67">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -58969,20 +58653,16 @@
       <c r="A68" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B68" s="41">
+      <c r="B68">
         <v>1</v>
       </c>
-      <c r="C68" s="41">
+      <c r="C68">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D68" s="41"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="41"/>
-      <c r="G68" s="41"/>
-      <c r="H68" s="41">
+      <c r="H68">
         <v>1</v>
       </c>
-      <c r="I68" s="41">
+      <c r="I68">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -58990,20 +58670,16 @@
       <c r="A69" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B69" s="41">
+      <c r="B69">
         <v>1</v>
       </c>
-      <c r="C69" s="41">
+      <c r="C69">
         <v>4</v>
       </c>
-      <c r="D69" s="41"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41">
+      <c r="H69">
         <v>1</v>
       </c>
-      <c r="I69" s="41">
+      <c r="I69">
         <v>4</v>
       </c>
     </row>
@@ -59011,20 +58687,16 @@
       <c r="A70" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B70" s="41"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="41">
+      <c r="F70">
         <v>1</v>
       </c>
-      <c r="G70" s="41">
+      <c r="G70">
         <v>2.7</v>
       </c>
-      <c r="H70" s="41">
+      <c r="H70">
         <v>1</v>
       </c>
-      <c r="I70" s="41">
+      <c r="I70">
         <v>2.7</v>
       </c>
     </row>
@@ -59032,20 +58704,16 @@
       <c r="A71" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="41">
+      <c r="D71">
         <v>1</v>
       </c>
-      <c r="E71" s="41">
+      <c r="E71">
         <v>5</v>
       </c>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41">
+      <c r="H71">
         <v>1</v>
       </c>
-      <c r="I71" s="41">
+      <c r="I71">
         <v>5</v>
       </c>
     </row>
@@ -59053,20 +58721,16 @@
       <c r="A72" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="41">
+      <c r="B72">
         <v>1</v>
       </c>
-      <c r="C72" s="41">
+      <c r="C72">
         <v>3</v>
       </c>
-      <c r="D72" s="41"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="41"/>
-      <c r="G72" s="41"/>
-      <c r="H72" s="41">
+      <c r="H72">
         <v>1</v>
       </c>
-      <c r="I72" s="41">
+      <c r="I72">
         <v>3</v>
       </c>
     </row>
@@ -59074,20 +58738,16 @@
       <c r="A73" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B73" s="41">
+      <c r="B73">
         <v>1</v>
       </c>
-      <c r="C73" s="41">
+      <c r="C73">
         <v>4.3</v>
       </c>
-      <c r="D73" s="41"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="41"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="41">
+      <c r="H73">
         <v>1</v>
       </c>
-      <c r="I73" s="41">
+      <c r="I73">
         <v>4.3</v>
       </c>
     </row>
@@ -59095,20 +58755,16 @@
       <c r="A74" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B74" s="41"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="41">
+      <c r="D74">
         <v>1</v>
       </c>
-      <c r="E74" s="41">
+      <c r="E74">
         <v>5</v>
       </c>
-      <c r="F74" s="41"/>
-      <c r="G74" s="41"/>
-      <c r="H74" s="41">
+      <c r="H74">
         <v>1</v>
       </c>
-      <c r="I74" s="41">
+      <c r="I74">
         <v>5</v>
       </c>
     </row>
@@ -59116,20 +58772,16 @@
       <c r="A75" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="41"/>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41">
+      <c r="D75">
         <v>1</v>
       </c>
-      <c r="E75" s="41">
+      <c r="E75">
         <v>4.5</v>
       </c>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="41">
+      <c r="H75">
         <v>1</v>
       </c>
-      <c r="I75" s="41">
+      <c r="I75">
         <v>4.5</v>
       </c>
     </row>
@@ -59137,20 +58789,16 @@
       <c r="A76" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="41"/>
-      <c r="C76" s="41"/>
-      <c r="D76" s="41">
+      <c r="D76">
         <v>1</v>
       </c>
-      <c r="E76" s="41">
+      <c r="E76">
         <v>4.8</v>
       </c>
-      <c r="F76" s="41"/>
-      <c r="G76" s="41"/>
-      <c r="H76" s="41">
+      <c r="H76">
         <v>1</v>
       </c>
-      <c r="I76" s="41">
+      <c r="I76">
         <v>4.8</v>
       </c>
     </row>
@@ -59158,20 +58806,16 @@
       <c r="A77" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B77" s="41">
+      <c r="B77">
         <v>1</v>
       </c>
-      <c r="C77" s="41">
+      <c r="C77">
         <v>3.8</v>
       </c>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="41">
+      <c r="H77">
         <v>1</v>
       </c>
-      <c r="I77" s="41">
+      <c r="I77">
         <v>3.8</v>
       </c>
     </row>
@@ -59179,20 +58823,16 @@
       <c r="A78" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B78" s="41">
+      <c r="B78">
         <v>1</v>
       </c>
-      <c r="C78" s="41">
+      <c r="C78">
         <v>4.3</v>
       </c>
-      <c r="D78" s="41"/>
-      <c r="E78" s="41"/>
-      <c r="F78" s="41"/>
-      <c r="G78" s="41"/>
-      <c r="H78" s="41">
+      <c r="H78">
         <v>1</v>
       </c>
-      <c r="I78" s="41">
+      <c r="I78">
         <v>4.3</v>
       </c>
     </row>
@@ -59200,20 +58840,16 @@
       <c r="A79" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B79" s="41">
+      <c r="B79">
         <v>1</v>
       </c>
-      <c r="C79" s="41">
+      <c r="C79">
         <v>4</v>
       </c>
-      <c r="D79" s="41"/>
-      <c r="E79" s="41"/>
-      <c r="F79" s="41"/>
-      <c r="G79" s="41"/>
-      <c r="H79" s="41">
+      <c r="H79">
         <v>1</v>
       </c>
-      <c r="I79" s="41">
+      <c r="I79">
         <v>4</v>
       </c>
     </row>
@@ -59221,20 +58857,16 @@
       <c r="A80" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B80" s="41">
+      <c r="B80">
         <v>1</v>
       </c>
-      <c r="C80" s="41">
+      <c r="C80">
         <v>3.8</v>
       </c>
-      <c r="D80" s="41"/>
-      <c r="E80" s="41"/>
-      <c r="F80" s="41"/>
-      <c r="G80" s="41"/>
-      <c r="H80" s="41">
+      <c r="H80">
         <v>1</v>
       </c>
-      <c r="I80" s="41">
+      <c r="I80">
         <v>3.8</v>
       </c>
     </row>
@@ -59242,20 +58874,16 @@
       <c r="A81" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B81" s="41"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="41">
+      <c r="D81">
         <v>1</v>
       </c>
-      <c r="E81" s="41">
+      <c r="E81">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F81" s="41"/>
-      <c r="G81" s="41"/>
-      <c r="H81" s="41">
+      <c r="H81">
         <v>1</v>
       </c>
-      <c r="I81" s="41">
+      <c r="I81">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -59263,20 +58891,16 @@
       <c r="A82" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="41">
+      <c r="B82">
         <v>1</v>
       </c>
-      <c r="C82" s="41">
+      <c r="C82">
         <v>3</v>
       </c>
-      <c r="D82" s="41"/>
-      <c r="E82" s="41"/>
-      <c r="F82" s="41"/>
-      <c r="G82" s="41"/>
-      <c r="H82" s="41">
+      <c r="H82">
         <v>1</v>
       </c>
-      <c r="I82" s="41">
+      <c r="I82">
         <v>3</v>
       </c>
     </row>
@@ -59284,20 +58908,16 @@
       <c r="A83" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B83" s="41">
+      <c r="B83">
         <v>1</v>
       </c>
-      <c r="C83" s="41">
+      <c r="C83">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D83" s="41"/>
-      <c r="E83" s="41"/>
-      <c r="F83" s="41"/>
-      <c r="G83" s="41"/>
-      <c r="H83" s="41">
+      <c r="H83">
         <v>1</v>
       </c>
-      <c r="I83" s="41">
+      <c r="I83">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -59305,20 +58925,16 @@
       <c r="A84" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B84" s="41">
+      <c r="B84">
         <v>1</v>
       </c>
-      <c r="C84" s="41">
+      <c r="C84">
         <v>3.8</v>
       </c>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="41">
+      <c r="H84">
         <v>1</v>
       </c>
-      <c r="I84" s="41">
+      <c r="I84">
         <v>3.8</v>
       </c>
     </row>
@@ -59326,20 +58942,16 @@
       <c r="A85" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B85" s="41">
+      <c r="B85">
         <v>1</v>
       </c>
-      <c r="C85" s="41">
+      <c r="C85">
         <v>3.8</v>
       </c>
-      <c r="D85" s="41"/>
-      <c r="E85" s="41"/>
-      <c r="F85" s="41"/>
-      <c r="G85" s="41"/>
-      <c r="H85" s="41">
+      <c r="H85">
         <v>1</v>
       </c>
-      <c r="I85" s="41">
+      <c r="I85">
         <v>3.8</v>
       </c>
     </row>
@@ -59347,20 +58959,16 @@
       <c r="A86" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B86" s="41">
+      <c r="B86">
         <v>1</v>
       </c>
-      <c r="C86" s="41">
+      <c r="C86">
         <v>4.2</v>
       </c>
-      <c r="D86" s="41"/>
-      <c r="E86" s="41"/>
-      <c r="F86" s="41"/>
-      <c r="G86" s="41"/>
-      <c r="H86" s="41">
+      <c r="H86">
         <v>1</v>
       </c>
-      <c r="I86" s="41">
+      <c r="I86">
         <v>4.2</v>
       </c>
     </row>
@@ -59368,20 +58976,16 @@
       <c r="A87" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="B87" s="41">
+      <c r="B87">
         <v>1</v>
       </c>
-      <c r="C87" s="41">
+      <c r="C87">
         <v>3.8</v>
       </c>
-      <c r="D87" s="41"/>
-      <c r="E87" s="41"/>
-      <c r="F87" s="41"/>
-      <c r="G87" s="41"/>
-      <c r="H87" s="41">
+      <c r="H87">
         <v>1</v>
       </c>
-      <c r="I87" s="41">
+      <c r="I87">
         <v>3.8</v>
       </c>
     </row>
@@ -59389,20 +58993,16 @@
       <c r="A88" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B88" s="41">
+      <c r="B88">
         <v>1</v>
       </c>
-      <c r="C88" s="41">
+      <c r="C88">
         <v>3.8</v>
       </c>
-      <c r="D88" s="41"/>
-      <c r="E88" s="41"/>
-      <c r="F88" s="41"/>
-      <c r="G88" s="41"/>
-      <c r="H88" s="41">
+      <c r="H88">
         <v>1</v>
       </c>
-      <c r="I88" s="41">
+      <c r="I88">
         <v>3.8</v>
       </c>
     </row>
@@ -59410,20 +59010,16 @@
       <c r="A89" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B89" s="41">
+      <c r="B89">
         <v>1</v>
       </c>
-      <c r="C89" s="41">
+      <c r="C89">
         <v>3.8</v>
       </c>
-      <c r="D89" s="41"/>
-      <c r="E89" s="41"/>
-      <c r="F89" s="41"/>
-      <c r="G89" s="41"/>
-      <c r="H89" s="41">
+      <c r="H89">
         <v>1</v>
       </c>
-      <c r="I89" s="41">
+      <c r="I89">
         <v>3.8</v>
       </c>
     </row>
@@ -59431,20 +59027,16 @@
       <c r="A90" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B90" s="41">
+      <c r="B90">
         <v>1</v>
       </c>
-      <c r="C90" s="41">
+      <c r="C90">
         <v>3</v>
       </c>
-      <c r="D90" s="41"/>
-      <c r="E90" s="41"/>
-      <c r="F90" s="41"/>
-      <c r="G90" s="41"/>
-      <c r="H90" s="41">
+      <c r="H90">
         <v>1</v>
       </c>
-      <c r="I90" s="41">
+      <c r="I90">
         <v>3</v>
       </c>
     </row>
@@ -59452,20 +59044,16 @@
       <c r="A91" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B91" s="41">
+      <c r="B91">
         <v>1</v>
       </c>
-      <c r="C91" s="41">
+      <c r="C91">
         <v>3.8</v>
       </c>
-      <c r="D91" s="41"/>
-      <c r="E91" s="41"/>
-      <c r="F91" s="41"/>
-      <c r="G91" s="41"/>
-      <c r="H91" s="41">
+      <c r="H91">
         <v>1</v>
       </c>
-      <c r="I91" s="41">
+      <c r="I91">
         <v>3.8</v>
       </c>
     </row>
@@ -59473,20 +59061,16 @@
       <c r="A92" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B92" s="41">
+      <c r="B92">
         <v>1</v>
       </c>
-      <c r="C92" s="41">
+      <c r="C92">
         <v>3.8</v>
       </c>
-      <c r="D92" s="41"/>
-      <c r="E92" s="41"/>
-      <c r="F92" s="41"/>
-      <c r="G92" s="41"/>
-      <c r="H92" s="41">
+      <c r="H92">
         <v>1</v>
       </c>
-      <c r="I92" s="41">
+      <c r="I92">
         <v>3.8</v>
       </c>
     </row>
@@ -59494,20 +59078,16 @@
       <c r="A93" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B93" s="41"/>
-      <c r="C93" s="41"/>
-      <c r="D93" s="41">
+      <c r="D93">
         <v>1</v>
       </c>
-      <c r="E93" s="41">
+      <c r="E93">
         <v>5</v>
       </c>
-      <c r="F93" s="41"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="41">
+      <c r="H93">
         <v>1</v>
       </c>
-      <c r="I93" s="41">
+      <c r="I93">
         <v>5</v>
       </c>
     </row>
@@ -59515,20 +59095,16 @@
       <c r="A94" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B94" s="41">
+      <c r="B94">
         <v>1</v>
       </c>
-      <c r="C94" s="41">
+      <c r="C94">
         <v>3.8</v>
       </c>
-      <c r="D94" s="41"/>
-      <c r="E94" s="41"/>
-      <c r="F94" s="41"/>
-      <c r="G94" s="41"/>
-      <c r="H94" s="41">
+      <c r="H94">
         <v>1</v>
       </c>
-      <c r="I94" s="41">
+      <c r="I94">
         <v>3.8</v>
       </c>
     </row>
@@ -59536,20 +59112,16 @@
       <c r="A95" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B95" s="41">
+      <c r="B95">
         <v>1</v>
       </c>
-      <c r="C95" s="41">
+      <c r="C95">
         <v>3.8</v>
       </c>
-      <c r="D95" s="41"/>
-      <c r="E95" s="41"/>
-      <c r="F95" s="41"/>
-      <c r="G95" s="41"/>
-      <c r="H95" s="41">
+      <c r="H95">
         <v>1</v>
       </c>
-      <c r="I95" s="41">
+      <c r="I95">
         <v>3.8</v>
       </c>
     </row>
@@ -59557,20 +59129,16 @@
       <c r="A96" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B96" s="41"/>
-      <c r="C96" s="41"/>
-      <c r="D96" s="41">
+      <c r="D96">
         <v>1</v>
       </c>
-      <c r="E96" s="41">
+      <c r="E96">
         <v>4.8</v>
       </c>
-      <c r="F96" s="41"/>
-      <c r="G96" s="41"/>
-      <c r="H96" s="41">
+      <c r="H96">
         <v>1</v>
       </c>
-      <c r="I96" s="41">
+      <c r="I96">
         <v>4.8</v>
       </c>
     </row>
@@ -59578,20 +59146,16 @@
       <c r="A97" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B97" s="41"/>
-      <c r="C97" s="41"/>
-      <c r="D97" s="41">
+      <c r="D97">
         <v>1</v>
       </c>
-      <c r="E97" s="41">
+      <c r="E97">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F97" s="41"/>
-      <c r="G97" s="41"/>
-      <c r="H97" s="41">
+      <c r="H97">
         <v>1</v>
       </c>
-      <c r="I97" s="41">
+      <c r="I97">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -59599,20 +59163,16 @@
       <c r="A98" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="B98" s="41">
+      <c r="B98">
         <v>1</v>
       </c>
-      <c r="C98" s="41">
+      <c r="C98">
         <v>3.8</v>
       </c>
-      <c r="D98" s="41"/>
-      <c r="E98" s="41"/>
-      <c r="F98" s="41"/>
-      <c r="G98" s="41"/>
-      <c r="H98" s="41">
+      <c r="H98">
         <v>1</v>
       </c>
-      <c r="I98" s="41">
+      <c r="I98">
         <v>3.8</v>
       </c>
     </row>
@@ -59620,20 +59180,16 @@
       <c r="A99" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B99" s="41">
+      <c r="B99">
         <v>1</v>
       </c>
-      <c r="C99" s="41">
+      <c r="C99">
         <v>3.8</v>
       </c>
-      <c r="D99" s="41"/>
-      <c r="E99" s="41"/>
-      <c r="F99" s="41"/>
-      <c r="G99" s="41"/>
-      <c r="H99" s="41">
+      <c r="H99">
         <v>1</v>
       </c>
-      <c r="I99" s="41">
+      <c r="I99">
         <v>3.8</v>
       </c>
     </row>
@@ -59641,20 +59197,16 @@
       <c r="A100" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="B100" s="41">
+      <c r="B100">
         <v>1</v>
       </c>
-      <c r="C100" s="41">
+      <c r="C100">
         <v>3.8</v>
       </c>
-      <c r="D100" s="41"/>
-      <c r="E100" s="41"/>
-      <c r="F100" s="41"/>
-      <c r="G100" s="41"/>
-      <c r="H100" s="41">
+      <c r="H100">
         <v>1</v>
       </c>
-      <c r="I100" s="41">
+      <c r="I100">
         <v>3.8</v>
       </c>
     </row>
@@ -59662,20 +59214,16 @@
       <c r="A101" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B101" s="41">
+      <c r="B101">
         <v>1</v>
       </c>
-      <c r="C101" s="41">
+      <c r="C101">
         <v>4.3</v>
       </c>
-      <c r="D101" s="41"/>
-      <c r="E101" s="41"/>
-      <c r="F101" s="41"/>
-      <c r="G101" s="41"/>
-      <c r="H101" s="41">
+      <c r="H101">
         <v>1</v>
       </c>
-      <c r="I101" s="41">
+      <c r="I101">
         <v>4.3</v>
       </c>
     </row>
@@ -59683,20 +59231,16 @@
       <c r="A102" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B102" s="41">
+      <c r="B102">
         <v>1</v>
       </c>
-      <c r="C102" s="41">
+      <c r="C102">
         <v>3.8</v>
       </c>
-      <c r="D102" s="41"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="41">
+      <c r="H102">
         <v>1</v>
       </c>
-      <c r="I102" s="41">
+      <c r="I102">
         <v>3.8</v>
       </c>
     </row>
@@ -59704,20 +59248,16 @@
       <c r="A103" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B103" s="41">
+      <c r="B103">
         <v>1</v>
       </c>
-      <c r="C103" s="41">
+      <c r="C103">
         <v>3.8</v>
       </c>
-      <c r="D103" s="41"/>
-      <c r="E103" s="41"/>
-      <c r="F103" s="41"/>
-      <c r="G103" s="41"/>
-      <c r="H103" s="41">
+      <c r="H103">
         <v>1</v>
       </c>
-      <c r="I103" s="41">
+      <c r="I103">
         <v>3.8</v>
       </c>
     </row>
@@ -59725,20 +59265,16 @@
       <c r="A104" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B104" s="41">
+      <c r="B104">
         <v>1</v>
       </c>
-      <c r="C104" s="41">
+      <c r="C104">
         <v>3.8</v>
       </c>
-      <c r="D104" s="41"/>
-      <c r="E104" s="41"/>
-      <c r="F104" s="41"/>
-      <c r="G104" s="41"/>
-      <c r="H104" s="41">
+      <c r="H104">
         <v>1</v>
       </c>
-      <c r="I104" s="41">
+      <c r="I104">
         <v>3.8</v>
       </c>
     </row>
@@ -59746,20 +59282,16 @@
       <c r="A105" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B105" s="41">
+      <c r="B105">
         <v>1</v>
       </c>
-      <c r="C105" s="41">
+      <c r="C105">
         <v>3.8</v>
       </c>
-      <c r="D105" s="41"/>
-      <c r="E105" s="41"/>
-      <c r="F105" s="41"/>
-      <c r="G105" s="41"/>
-      <c r="H105" s="41">
+      <c r="H105">
         <v>1</v>
       </c>
-      <c r="I105" s="41">
+      <c r="I105">
         <v>3.8</v>
       </c>
     </row>
@@ -59767,20 +59299,16 @@
       <c r="A106" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B106" s="41">
+      <c r="B106">
         <v>1</v>
       </c>
-      <c r="C106" s="41">
+      <c r="C106">
         <v>3.8</v>
       </c>
-      <c r="D106" s="41"/>
-      <c r="E106" s="41"/>
-      <c r="F106" s="41"/>
-      <c r="G106" s="41"/>
-      <c r="H106" s="41">
+      <c r="H106">
         <v>1</v>
       </c>
-      <c r="I106" s="41">
+      <c r="I106">
         <v>3.8</v>
       </c>
     </row>
@@ -59788,20 +59316,16 @@
       <c r="A107" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B107" s="41"/>
-      <c r="C107" s="41"/>
-      <c r="D107" s="41"/>
-      <c r="E107" s="41"/>
-      <c r="F107" s="41">
+      <c r="F107">
         <v>1</v>
       </c>
-      <c r="G107" s="41">
+      <c r="G107">
         <v>2.9</v>
       </c>
-      <c r="H107" s="41">
+      <c r="H107">
         <v>1</v>
       </c>
-      <c r="I107" s="41">
+      <c r="I107">
         <v>2.9</v>
       </c>
     </row>
@@ -59809,20 +59333,16 @@
       <c r="A108" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B108" s="41">
+      <c r="B108">
         <v>1</v>
       </c>
-      <c r="C108" s="41">
+      <c r="C108">
         <v>3.8</v>
       </c>
-      <c r="D108" s="41"/>
-      <c r="E108" s="41"/>
-      <c r="F108" s="41"/>
-      <c r="G108" s="41"/>
-      <c r="H108" s="41">
+      <c r="H108">
         <v>1</v>
       </c>
-      <c r="I108" s="41">
+      <c r="I108">
         <v>3.8</v>
       </c>
     </row>
@@ -59830,20 +59350,16 @@
       <c r="A109" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B109" s="41">
+      <c r="B109">
         <v>1</v>
       </c>
-      <c r="C109" s="41">
+      <c r="C109">
         <v>3.8</v>
       </c>
-      <c r="D109" s="41"/>
-      <c r="E109" s="41"/>
-      <c r="F109" s="41"/>
-      <c r="G109" s="41"/>
-      <c r="H109" s="41">
+      <c r="H109">
         <v>1</v>
       </c>
-      <c r="I109" s="41">
+      <c r="I109">
         <v>3.8</v>
       </c>
     </row>
@@ -59851,20 +59367,16 @@
       <c r="A110" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B110" s="41"/>
-      <c r="C110" s="41"/>
-      <c r="D110" s="41"/>
-      <c r="E110" s="41"/>
-      <c r="F110" s="41">
+      <c r="F110">
         <v>1</v>
       </c>
-      <c r="G110" s="41">
+      <c r="G110">
         <v>2</v>
       </c>
-      <c r="H110" s="41">
+      <c r="H110">
         <v>1</v>
       </c>
-      <c r="I110" s="41">
+      <c r="I110">
         <v>2</v>
       </c>
     </row>
@@ -59872,20 +59384,16 @@
       <c r="A111" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="B111" s="41">
+      <c r="B111">
         <v>1</v>
       </c>
-      <c r="C111" s="41">
+      <c r="C111">
         <v>3.8</v>
       </c>
-      <c r="D111" s="41"/>
-      <c r="E111" s="41"/>
-      <c r="F111" s="41"/>
-      <c r="G111" s="41"/>
-      <c r="H111" s="41">
+      <c r="H111">
         <v>1</v>
       </c>
-      <c r="I111" s="41">
+      <c r="I111">
         <v>3.8</v>
       </c>
     </row>
@@ -59893,20 +59401,16 @@
       <c r="A112" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B112" s="41"/>
-      <c r="C112" s="41"/>
-      <c r="D112" s="41"/>
-      <c r="E112" s="41"/>
-      <c r="F112" s="41">
+      <c r="F112">
         <v>1</v>
       </c>
-      <c r="G112" s="41">
+      <c r="G112">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H112" s="41">
+      <c r="H112">
         <v>1</v>
       </c>
-      <c r="I112" s="41">
+      <c r="I112">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -59914,20 +59418,16 @@
       <c r="A113" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B113" s="41"/>
-      <c r="C113" s="41"/>
-      <c r="D113" s="41">
+      <c r="D113">
         <v>1</v>
       </c>
-      <c r="E113" s="41">
+      <c r="E113">
         <v>4.7</v>
       </c>
-      <c r="F113" s="41"/>
-      <c r="G113" s="41"/>
-      <c r="H113" s="41">
+      <c r="H113">
         <v>1</v>
       </c>
-      <c r="I113" s="41">
+      <c r="I113">
         <v>4.7</v>
       </c>
     </row>
@@ -59935,20 +59435,16 @@
       <c r="A114" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B114" s="41">
+      <c r="B114">
         <v>1</v>
       </c>
-      <c r="C114" s="41">
+      <c r="C114">
         <v>3</v>
       </c>
-      <c r="D114" s="41"/>
-      <c r="E114" s="41"/>
-      <c r="F114" s="41"/>
-      <c r="G114" s="41"/>
-      <c r="H114" s="41">
+      <c r="H114">
         <v>1</v>
       </c>
-      <c r="I114" s="41">
+      <c r="I114">
         <v>3</v>
       </c>
     </row>
@@ -59956,28 +59452,28 @@
       <c r="A115" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B115" s="41">
+      <c r="B115">
         <v>74</v>
       </c>
-      <c r="C115" s="41">
+      <c r="C115">
         <v>280.9000000000002</v>
       </c>
-      <c r="D115" s="41">
+      <c r="D115">
         <v>23</v>
       </c>
-      <c r="E115" s="41">
+      <c r="E115">
         <v>109.19999999999999</v>
       </c>
-      <c r="F115" s="41">
+      <c r="F115">
         <v>12</v>
       </c>
-      <c r="G115" s="41">
+      <c r="G115">
         <v>28.7</v>
       </c>
-      <c r="H115" s="41">
+      <c r="H115">
         <v>109</v>
       </c>
-      <c r="I115" s="41">
+      <c r="I115">
         <v>418.80000000000041</v>
       </c>
     </row>
@@ -59998,8 +59494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:E120"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" zoomScale="95" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+    <sheetView topLeftCell="B101" zoomScale="95" workbookViewId="0">
+      <selection activeCell="E116" sqref="E116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -60144,7 +59640,7 @@
       <c r="A6" s="28">
         <v>0.01</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6">
         <v>0</v>
       </c>
     </row>
@@ -60152,7 +59648,7 @@
       <c r="A7" s="28">
         <v>0.02</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7">
         <v>0</v>
       </c>
     </row>
@@ -60160,7 +59656,7 @@
       <c r="A8" s="28">
         <v>0.03</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8">
         <v>0</v>
       </c>
     </row>
@@ -60168,7 +59664,7 @@
       <c r="A9" s="28">
         <v>0.04</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9">
         <v>0</v>
       </c>
     </row>
@@ -60176,7 +59672,7 @@
       <c r="A10" s="28">
         <v>0.08</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10">
         <v>0</v>
       </c>
     </row>
@@ -60184,7 +59680,7 @@
       <c r="A11" s="28">
         <v>0.09</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11">
         <v>15</v>
       </c>
     </row>
@@ -60192,7 +59688,7 @@
       <c r="A12" s="28">
         <v>0.11</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12">
         <v>0</v>
       </c>
     </row>
@@ -60200,7 +59696,7 @@
       <c r="A13" s="28">
         <v>0.13</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13">
         <v>6</v>
       </c>
     </row>
@@ -60208,7 +59704,7 @@
       <c r="A14" s="28">
         <v>0.14000000000000001</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14">
         <v>0</v>
       </c>
     </row>
@@ -60216,7 +59712,7 @@
       <c r="A15" s="28">
         <v>0.18</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15">
         <v>12</v>
       </c>
     </row>
@@ -60224,7 +59720,7 @@
       <c r="A16" s="28">
         <v>0.19</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16">
         <v>5</v>
       </c>
     </row>
@@ -60232,7 +59728,7 @@
       <c r="A17" s="28">
         <v>0.2</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17">
         <v>12</v>
       </c>
     </row>
@@ -60240,7 +59736,7 @@
       <c r="A18" s="28">
         <v>0.21</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18">
         <v>1</v>
       </c>
     </row>
@@ -60248,7 +59744,7 @@
       <c r="A19" s="28">
         <v>0.22</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19">
         <v>16</v>
       </c>
     </row>
@@ -60256,7 +59752,7 @@
       <c r="A20" s="28">
         <v>0.23</v>
       </c>
-      <c r="B20" s="41">
+      <c r="B20">
         <v>14</v>
       </c>
     </row>
@@ -60264,7 +59760,7 @@
       <c r="A21" s="28">
         <v>0.24</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21">
         <v>55</v>
       </c>
     </row>
@@ -60272,7 +59768,7 @@
       <c r="A22" s="28">
         <v>0.25</v>
       </c>
-      <c r="B22" s="41">
+      <c r="B22">
         <v>24</v>
       </c>
     </row>
@@ -60280,7 +59776,7 @@
       <c r="A23" s="28">
         <v>0.26</v>
       </c>
-      <c r="B23" s="41">
+      <c r="B23">
         <v>5</v>
       </c>
     </row>
@@ -60288,7 +59784,7 @@
       <c r="A24" s="28">
         <v>0.27</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B24">
         <v>52</v>
       </c>
     </row>
@@ -60296,7 +59792,7 @@
       <c r="A25" s="28">
         <v>0.28999999999999998</v>
       </c>
-      <c r="B25" s="41">
+      <c r="B25">
         <v>5</v>
       </c>
     </row>
@@ -60304,7 +59800,7 @@
       <c r="A26" s="28">
         <v>0.3</v>
       </c>
-      <c r="B26" s="41">
+      <c r="B26">
         <v>20</v>
       </c>
     </row>
@@ -60312,7 +59808,7 @@
       <c r="A27" s="28">
         <v>0.32</v>
       </c>
-      <c r="B27" s="41">
+      <c r="B27">
         <v>13</v>
       </c>
     </row>
@@ -60320,7 +59816,7 @@
       <c r="A28" s="28">
         <v>0.33</v>
       </c>
-      <c r="B28" s="41">
+      <c r="B28">
         <v>9</v>
       </c>
     </row>
@@ -60328,7 +59824,7 @@
       <c r="A29" s="28">
         <v>0.34</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29">
         <v>51</v>
       </c>
     </row>
@@ -60336,7 +59832,7 @@
       <c r="A30" s="28">
         <v>0.35</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30">
         <v>55</v>
       </c>
     </row>
@@ -60344,7 +59840,7 @@
       <c r="A31" s="28">
         <v>0.36</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31">
         <v>0</v>
       </c>
     </row>
@@ -60352,7 +59848,7 @@
       <c r="A32" s="28">
         <v>0.37</v>
       </c>
-      <c r="B32" s="41">
+      <c r="B32">
         <v>9</v>
       </c>
     </row>
@@ -60360,7 +59856,7 @@
       <c r="A33" s="28">
         <v>0.38</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33">
         <v>4</v>
       </c>
     </row>
@@ -60368,7 +59864,7 @@
       <c r="A34" s="28">
         <v>0.39</v>
       </c>
-      <c r="B34" s="41">
+      <c r="B34">
         <v>5</v>
       </c>
     </row>
@@ -60376,7 +59872,7 @@
       <c r="A35" s="28">
         <v>0.4</v>
       </c>
-      <c r="B35" s="41">
+      <c r="B35">
         <v>1</v>
       </c>
     </row>
@@ -60384,7 +59880,7 @@
       <c r="A36" s="28">
         <v>0.41</v>
       </c>
-      <c r="B36" s="41">
+      <c r="B36">
         <v>36</v>
       </c>
     </row>
@@ -60392,7 +59888,7 @@
       <c r="A37" s="28">
         <v>0.42</v>
       </c>
-      <c r="B37" s="41">
+      <c r="B37">
         <v>6</v>
       </c>
     </row>
@@ -60400,7 +59896,7 @@
       <c r="A38" s="28">
         <v>0.43</v>
       </c>
-      <c r="B38" s="41">
+      <c r="B38">
         <v>11</v>
       </c>
     </row>
@@ -60408,7 +59904,7 @@
       <c r="A39" s="28">
         <v>0.45</v>
       </c>
-      <c r="B39" s="41">
+      <c r="B39">
         <v>28</v>
       </c>
     </row>
@@ -60416,7 +59912,7 @@
       <c r="A40" s="28">
         <v>0.46</v>
       </c>
-      <c r="B40" s="41">
+      <c r="B40">
         <v>3</v>
       </c>
     </row>
@@ -60424,7 +59920,7 @@
       <c r="A41" s="28">
         <v>0.47</v>
       </c>
-      <c r="B41" s="41">
+      <c r="B41">
         <v>39</v>
       </c>
     </row>
@@ -60432,7 +59928,7 @@
       <c r="A42" s="28">
         <v>0.48</v>
       </c>
-      <c r="B42" s="41">
+      <c r="B42">
         <v>9</v>
       </c>
     </row>
@@ -60440,7 +59936,7 @@
       <c r="A43" s="28">
         <v>0.49</v>
       </c>
-      <c r="B43" s="41">
+      <c r="B43">
         <v>118</v>
       </c>
     </row>
@@ -60448,7 +59944,7 @@
       <c r="A44" s="28">
         <v>0.5</v>
       </c>
-      <c r="B44" s="41">
+      <c r="B44">
         <v>8</v>
       </c>
     </row>
@@ -60456,7 +59952,7 @@
       <c r="A45" s="28">
         <v>0.51</v>
       </c>
-      <c r="B45" s="41">
+      <c r="B45">
         <v>2</v>
       </c>
     </row>
@@ -60464,7 +59960,7 @@
       <c r="A46" s="28">
         <v>0.52</v>
       </c>
-      <c r="B46" s="41">
+      <c r="B46">
         <v>24</v>
       </c>
     </row>
@@ -60472,7 +59968,7 @@
       <c r="A47" s="28">
         <v>0.53</v>
       </c>
-      <c r="B47" s="41">
+      <c r="B47">
         <v>15</v>
       </c>
     </row>
@@ -60480,7 +59976,7 @@
       <c r="A48" s="28">
         <v>0.54</v>
       </c>
-      <c r="B48" s="41">
+      <c r="B48">
         <v>17</v>
       </c>
     </row>
@@ -60488,7 +59984,7 @@
       <c r="A49" s="28">
         <v>0.55000000000000004</v>
       </c>
-      <c r="B49" s="41">
+      <c r="B49">
         <v>18</v>
       </c>
     </row>
@@ -60496,7 +59992,7 @@
       <c r="A50" s="28">
         <v>0.61</v>
       </c>
-      <c r="B50" s="41">
+      <c r="B50">
         <v>0</v>
       </c>
     </row>
@@ -60504,7 +60000,7 @@
       <c r="A51" s="28">
         <v>0.64</v>
       </c>
-      <c r="B51" s="41">
+      <c r="B51">
         <v>0</v>
       </c>
     </row>
@@ -60512,11 +60008,11 @@
       <c r="A52" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B52" s="41">
+      <c r="B52">
         <v>723</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="57" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A58" s="30" t="s">
         <v>146</v>
@@ -60702,8 +60198,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A111" s="40" t="s">
+    <row r="111" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A111" s="37" t="s">
         <v>142</v>
       </c>
     </row>
@@ -60722,7 +60218,7 @@
       <c r="D117" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="E117" s="41">
+      <c r="E117" s="39">
         <v>334</v>
       </c>
     </row>
@@ -60730,7 +60226,7 @@
       <c r="D118" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="E118" s="41">
+      <c r="E118" s="39">
         <v>38</v>
       </c>
     </row>
@@ -60738,7 +60234,7 @@
       <c r="D119" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="E119" s="41">
+      <c r="E119" s="39">
         <v>351</v>
       </c>
     </row>
@@ -60746,7 +60242,7 @@
       <c r="D120" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="E120" s="41">
+      <c r="E120" s="39">
         <v>723</v>
       </c>
     </row>
@@ -60771,7 +60267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D383"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A166" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -60803,13 +60299,13 @@
       <c r="A4" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4">
         <v>900</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4">
         <v>4.5</v>
       </c>
     </row>
@@ -60817,13 +60313,13 @@
       <c r="A5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5">
         <v>39</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5">
         <v>510</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5">
         <v>4.7</v>
       </c>
     </row>
@@ -60831,13 +60327,13 @@
       <c r="A6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6">
         <v>575</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6">
         <v>4.5</v>
       </c>
     </row>
@@ -60845,13 +60341,13 @@
       <c r="A7" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7">
         <v>13</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7">
         <v>640</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7">
         <v>3.8</v>
       </c>
     </row>
@@ -60859,13 +60355,13 @@
       <c r="A8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8">
         <v>12</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8">
         <v>510</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8">
         <v>4.7</v>
       </c>
     </row>
@@ -60873,13 +60369,13 @@
       <c r="A9" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9">
         <v>69</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9">
         <v>428</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9">
         <v>2.8</v>
       </c>
     </row>
@@ -60887,13 +60383,13 @@
       <c r="A10" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10">
         <v>1011</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10">
         <v>3.8</v>
       </c>
     </row>
@@ -60901,13 +60397,13 @@
       <c r="A11" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11">
         <v>5</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11">
         <v>1329</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11">
         <v>3.8</v>
       </c>
     </row>
@@ -60915,13 +60411,13 @@
       <c r="A12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="42">
+      <c r="B12" s="35">
         <v>55</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12">
         <v>713</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -60929,13 +60425,13 @@
       <c r="A13" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13">
         <v>62</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13">
         <v>3.8</v>
       </c>
     </row>
@@ -60943,13 +60439,13 @@
       <c r="A14" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14">
         <v>33</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14">
         <v>3.8</v>
       </c>
     </row>
@@ -60957,13 +60453,13 @@
       <c r="A15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15">
         <v>15</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15">
         <v>291</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15">
         <v>4</v>
       </c>
     </row>
@@ -60971,13 +60467,13 @@
       <c r="A16" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16">
         <v>24</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16">
         <v>3.8</v>
       </c>
     </row>
@@ -60985,13 +60481,13 @@
       <c r="A17" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17">
         <v>1200</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17">
         <v>3.8</v>
       </c>
     </row>
@@ -60999,13 +60495,13 @@
       <c r="A18" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18">
         <v>750</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18">
         <v>3.8</v>
       </c>
     </row>
@@ -61013,13 +60509,13 @@
       <c r="A19" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19">
         <v>695</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19">
         <v>3.8</v>
       </c>
     </row>
@@ -61027,13 +60523,13 @@
       <c r="A20" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="41">
+      <c r="B20">
         <v>5</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20">
         <v>2393</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20">
         <v>3</v>
       </c>
     </row>
@@ -61041,13 +60537,13 @@
       <c r="A21" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21">
         <v>7</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21">
         <v>1000</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -61055,13 +60551,13 @@
       <c r="A22" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="41">
+      <c r="B22">
         <v>44</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22">
         <v>968</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -61069,13 +60565,13 @@
       <c r="A23" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="41">
+      <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23" s="41">
+      <c r="C23">
         <v>510</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23">
         <v>3.8</v>
       </c>
     </row>
@@ -61083,13 +60579,13 @@
       <c r="A24" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B24">
         <v>13</v>
       </c>
-      <c r="C24" s="41">
+      <c r="C24">
         <v>42</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24">
         <v>3.3</v>
       </c>
     </row>
@@ -61097,13 +60593,13 @@
       <c r="A25" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="41">
+      <c r="B25">
         <v>0</v>
       </c>
-      <c r="C25" s="41">
+      <c r="C25">
         <v>238</v>
       </c>
-      <c r="D25" s="41">
+      <c r="D25">
         <v>3.8</v>
       </c>
     </row>
@@ -61111,13 +60607,13 @@
       <c r="A26" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="41">
+      <c r="B26">
         <v>12</v>
       </c>
-      <c r="C26" s="41">
+      <c r="C26">
         <v>483</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26">
         <v>4.8</v>
       </c>
     </row>
@@ -61125,13 +60621,13 @@
       <c r="A27" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="41">
+      <c r="B27">
         <v>0</v>
       </c>
-      <c r="C27" s="41">
+      <c r="C27">
         <v>456</v>
       </c>
-      <c r="D27" s="41">
+      <c r="D27">
         <v>3.8</v>
       </c>
     </row>
@@ -61139,13 +60635,13 @@
       <c r="A28" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="41">
+      <c r="B28">
         <v>0</v>
       </c>
-      <c r="C28" s="41">
+      <c r="C28">
         <v>1360</v>
       </c>
-      <c r="D28" s="41">
+      <c r="D28">
         <v>3.3</v>
       </c>
     </row>
@@ -61153,13 +60649,13 @@
       <c r="A29" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29">
         <v>6</v>
       </c>
-      <c r="C29" s="41">
+      <c r="C29">
         <v>330</v>
       </c>
-      <c r="D29" s="41">
+      <c r="D29">
         <v>2.5</v>
       </c>
     </row>
@@ -61167,13 +60663,13 @@
       <c r="A30" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30">
         <v>20</v>
       </c>
-      <c r="C30" s="41">
+      <c r="C30">
         <v>741</v>
       </c>
-      <c r="D30" s="41">
+      <c r="D30">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -61181,13 +60677,13 @@
       <c r="A31" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31">
         <v>32</v>
       </c>
-      <c r="C31" s="41">
+      <c r="C31">
         <v>719</v>
       </c>
-      <c r="D31" s="41">
+      <c r="D31">
         <v>4.5</v>
       </c>
     </row>
@@ -61195,13 +60691,13 @@
       <c r="A32" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="41">
+      <c r="B32">
         <v>20</v>
       </c>
-      <c r="C32" s="41">
+      <c r="C32">
         <v>710</v>
       </c>
-      <c r="D32" s="41">
+      <c r="D32">
         <v>4.7</v>
       </c>
     </row>
@@ -61209,13 +60705,13 @@
       <c r="A33" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33">
         <v>0</v>
       </c>
-      <c r="C33" s="41">
+      <c r="C33">
         <v>830</v>
       </c>
-      <c r="D33" s="41">
+      <c r="D33">
         <v>3.8</v>
       </c>
     </row>
@@ -61223,13 +60719,13 @@
       <c r="A34" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="41">
+      <c r="B34">
         <v>13</v>
       </c>
-      <c r="C34" s="41">
+      <c r="C34">
         <v>2585</v>
       </c>
-      <c r="D34" s="41">
+      <c r="D34">
         <v>2.1</v>
       </c>
     </row>
@@ -61237,13 +60733,13 @@
       <c r="A35" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="41">
+      <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35" s="41">
+      <c r="C35">
         <v>354</v>
       </c>
-      <c r="D35" s="41">
+      <c r="D35">
         <v>3.8</v>
       </c>
     </row>
@@ -61251,13 +60747,13 @@
       <c r="A36" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="41">
+      <c r="B36">
         <v>0</v>
       </c>
-      <c r="C36" s="41">
+      <c r="C36">
         <v>800</v>
       </c>
-      <c r="D36" s="41">
+      <c r="D36">
         <v>3.8</v>
       </c>
     </row>
@@ -61265,13 +60761,13 @@
       <c r="A37" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="41">
+      <c r="B37">
         <v>0</v>
       </c>
-      <c r="C37" s="41">
+      <c r="C37">
         <v>595</v>
       </c>
-      <c r="D37" s="41">
+      <c r="D37">
         <v>3.8</v>
       </c>
     </row>
@@ -61279,13 +60775,13 @@
       <c r="A38" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="41">
+      <c r="B38">
         <v>0</v>
       </c>
-      <c r="C38" s="41">
+      <c r="C38">
         <v>220</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D38">
         <v>3.8</v>
       </c>
     </row>
@@ -61293,13 +60789,13 @@
       <c r="A39" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="41">
+      <c r="B39">
         <v>6</v>
       </c>
-      <c r="C39" s="41">
+      <c r="C39">
         <v>846</v>
       </c>
-      <c r="D39" s="41">
+      <c r="D39">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -61307,13 +60803,13 @@
       <c r="A40" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B40" s="41">
+      <c r="B40">
         <v>0</v>
       </c>
-      <c r="C40" s="41">
+      <c r="C40">
         <v>794</v>
       </c>
-      <c r="D40" s="41">
+      <c r="D40">
         <v>3.8</v>
       </c>
     </row>
@@ -61321,13 +60817,13 @@
       <c r="A41" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="B41" s="41">
+      <c r="B41">
         <v>0</v>
       </c>
-      <c r="C41" s="41">
+      <c r="C41">
         <v>1000</v>
       </c>
-      <c r="D41" s="41">
+      <c r="D41">
         <v>3.8</v>
       </c>
     </row>
@@ -61335,13 +60831,13 @@
       <c r="A42" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="41">
+      <c r="B42">
         <v>17</v>
       </c>
-      <c r="C42" s="41">
+      <c r="C42">
         <v>318</v>
       </c>
-      <c r="D42" s="41">
+      <c r="D42">
         <v>2.6</v>
       </c>
     </row>
@@ -61349,13 +60845,13 @@
       <c r="A43" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="41">
+      <c r="B43">
         <v>0</v>
       </c>
-      <c r="C43" s="41">
+      <c r="C43">
         <v>768</v>
       </c>
-      <c r="D43" s="41">
+      <c r="D43">
         <v>3.8</v>
       </c>
     </row>
@@ -61363,13 +60859,13 @@
       <c r="A44" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="41">
+      <c r="B44">
         <v>2</v>
       </c>
-      <c r="C44" s="41">
+      <c r="C44">
         <v>352</v>
       </c>
-      <c r="D44" s="41">
+      <c r="D44">
         <v>5</v>
       </c>
     </row>
@@ -61377,13 +60873,13 @@
       <c r="A45" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="41">
+      <c r="B45">
         <v>6</v>
       </c>
-      <c r="C45" s="41">
+      <c r="C45">
         <v>824</v>
       </c>
-      <c r="D45" s="41">
+      <c r="D45">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -61391,13 +60887,13 @@
       <c r="A46" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="41">
+      <c r="B46">
         <v>0</v>
       </c>
-      <c r="C46" s="41">
+      <c r="C46">
         <v>504</v>
       </c>
-      <c r="D46" s="41">
+      <c r="D46">
         <v>3.8</v>
       </c>
     </row>
@@ -61405,13 +60901,13 @@
       <c r="A47" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="41">
+      <c r="B47">
         <v>0</v>
       </c>
-      <c r="C47" s="41">
+      <c r="C47">
         <v>450</v>
       </c>
-      <c r="D47" s="41">
+      <c r="D47">
         <v>3.8</v>
       </c>
     </row>
@@ -61419,13 +60915,13 @@
       <c r="A48" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B48" s="41">
+      <c r="B48">
         <v>1</v>
       </c>
-      <c r="C48" s="41">
+      <c r="C48">
         <v>941</v>
       </c>
-      <c r="D48" s="41">
+      <c r="D48">
         <v>5</v>
       </c>
     </row>
@@ -61433,13 +60929,13 @@
       <c r="A49" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="41">
+      <c r="B49">
         <v>0</v>
       </c>
-      <c r="C49" s="41">
+      <c r="C49">
         <v>151</v>
       </c>
-      <c r="D49" s="41">
+      <c r="D49">
         <v>3.8</v>
       </c>
     </row>
@@ -61447,13 +60943,13 @@
       <c r="A50" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="41">
+      <c r="B50">
         <v>0</v>
       </c>
-      <c r="C50" s="41">
+      <c r="C50">
         <v>301</v>
       </c>
-      <c r="D50" s="41">
+      <c r="D50">
         <v>3.8</v>
       </c>
     </row>
@@ -61461,13 +60957,13 @@
       <c r="A51" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="41">
+      <c r="B51">
         <v>0</v>
       </c>
-      <c r="C51" s="41">
+      <c r="C51">
         <v>645</v>
       </c>
-      <c r="D51" s="41">
+      <c r="D51">
         <v>3.8</v>
       </c>
     </row>
@@ -61475,13 +60971,13 @@
       <c r="A52" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="B52" s="41">
+      <c r="B52">
         <v>0</v>
       </c>
-      <c r="C52" s="41">
+      <c r="C52">
         <v>263</v>
       </c>
-      <c r="D52" s="41">
+      <c r="D52">
         <v>3.8</v>
       </c>
     </row>
@@ -61489,13 +60985,13 @@
       <c r="A53" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="41">
+      <c r="B53">
         <v>0</v>
       </c>
-      <c r="C53" s="41">
+      <c r="C53">
         <v>620</v>
       </c>
-      <c r="D53" s="41">
+      <c r="D53">
         <v>3.8</v>
       </c>
     </row>
@@ -61503,13 +60999,13 @@
       <c r="A54" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="41">
+      <c r="B54">
         <v>0</v>
       </c>
-      <c r="C54" s="41">
+      <c r="C54">
         <v>1001</v>
       </c>
-      <c r="D54" s="41">
+      <c r="D54">
         <v>3.8</v>
       </c>
     </row>
@@ -61517,13 +61013,13 @@
       <c r="A55" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="41">
+      <c r="B55">
         <v>0</v>
       </c>
-      <c r="C55" s="41">
+      <c r="C55">
         <v>644</v>
       </c>
-      <c r="D55" s="41">
+      <c r="D55">
         <v>3.8</v>
       </c>
     </row>
@@ -61531,13 +61027,13 @@
       <c r="A56" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B56" s="41">
+      <c r="B56">
         <v>2</v>
       </c>
-      <c r="C56" s="41">
+      <c r="C56">
         <v>189</v>
       </c>
-      <c r="D56" s="41">
+      <c r="D56">
         <v>5</v>
       </c>
     </row>
@@ -61545,13 +61041,13 @@
       <c r="A57" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="41">
+      <c r="B57">
         <v>0</v>
       </c>
-      <c r="C57" s="41">
+      <c r="C57">
         <v>305</v>
       </c>
-      <c r="D57" s="41">
+      <c r="D57">
         <v>3.8</v>
       </c>
     </row>
@@ -61559,13 +61055,13 @@
       <c r="A58" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="41">
+      <c r="B58">
         <v>0</v>
       </c>
-      <c r="C58" s="41">
+      <c r="C58">
         <v>67</v>
       </c>
-      <c r="D58" s="41">
+      <c r="D58">
         <v>3.8</v>
       </c>
     </row>
@@ -61573,13 +61069,13 @@
       <c r="A59" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="41">
+      <c r="B59">
         <v>0</v>
       </c>
-      <c r="C59" s="41">
+      <c r="C59">
         <v>544</v>
       </c>
-      <c r="D59" s="41">
+      <c r="D59">
         <v>3.8</v>
       </c>
     </row>
@@ -61587,13 +61083,13 @@
       <c r="A60" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="41">
+      <c r="B60">
         <v>2</v>
       </c>
-      <c r="C60" s="41">
+      <c r="C60">
         <v>592</v>
       </c>
-      <c r="D60" s="41">
+      <c r="D60">
         <v>4</v>
       </c>
     </row>
@@ -61601,13 +61097,13 @@
       <c r="A61" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B61" s="41">
+      <c r="B61">
         <v>1</v>
       </c>
-      <c r="C61" s="41">
+      <c r="C61">
         <v>1070</v>
       </c>
-      <c r="D61" s="41">
+      <c r="D61">
         <v>5</v>
       </c>
     </row>
@@ -61615,13 +61111,13 @@
       <c r="A62" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B62" s="41">
+      <c r="B62">
         <v>7</v>
       </c>
-      <c r="C62" s="41">
+      <c r="C62">
         <v>1418</v>
       </c>
-      <c r="D62" s="41">
+      <c r="D62">
         <v>2.1</v>
       </c>
     </row>
@@ -61629,13 +61125,13 @@
       <c r="A63" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B63" s="41">
+      <c r="B63">
         <v>49</v>
       </c>
-      <c r="C63" s="41">
+      <c r="C63">
         <v>227</v>
       </c>
-      <c r="D63" s="41">
+      <c r="D63">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -61643,13 +61139,13 @@
       <c r="A64" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B64" s="41">
+      <c r="B64">
         <v>9</v>
       </c>
-      <c r="C64" s="41">
+      <c r="C64">
         <v>197</v>
       </c>
-      <c r="D64" s="41">
+      <c r="D64">
         <v>4.3</v>
       </c>
     </row>
@@ -61657,13 +61153,13 @@
       <c r="A65" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B65" s="41">
+      <c r="B65">
         <v>14</v>
       </c>
-      <c r="C65" s="41">
+      <c r="C65">
         <v>500</v>
       </c>
-      <c r="D65" s="41">
+      <c r="D65">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -61671,13 +61167,13 @@
       <c r="A66" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="41">
+      <c r="B66">
         <v>12</v>
       </c>
-      <c r="C66" s="41">
+      <c r="C66">
         <v>200</v>
       </c>
-      <c r="D66" s="41">
+      <c r="D66">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -61685,13 +61181,13 @@
       <c r="A67" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B67" s="41">
+      <c r="B67">
         <v>1</v>
       </c>
-      <c r="C67" s="41">
+      <c r="C67">
         <v>317</v>
       </c>
-      <c r="D67" s="41">
+      <c r="D67">
         <v>4</v>
       </c>
     </row>
@@ -61699,13 +61195,13 @@
       <c r="A68" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="41">
+      <c r="B68">
         <v>15</v>
       </c>
-      <c r="C68" s="41">
+      <c r="C68">
         <v>355</v>
       </c>
-      <c r="D68" s="41">
+      <c r="D68">
         <v>2.7</v>
       </c>
     </row>
@@ -61713,13 +61209,13 @@
       <c r="A69" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B69" s="41">
+      <c r="B69">
         <v>1</v>
       </c>
-      <c r="C69" s="41">
+      <c r="C69">
         <v>948</v>
       </c>
-      <c r="D69" s="41">
+      <c r="D69">
         <v>5</v>
       </c>
     </row>
@@ -61727,13 +61223,13 @@
       <c r="A70" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="41">
+      <c r="B70">
         <v>5</v>
       </c>
-      <c r="C70" s="41">
+      <c r="C70">
         <v>940</v>
       </c>
-      <c r="D70" s="41">
+      <c r="D70">
         <v>3</v>
       </c>
     </row>
@@ -61741,13 +61237,13 @@
       <c r="A71" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B71" s="41">
+      <c r="B71">
         <v>7</v>
       </c>
-      <c r="C71" s="41">
+      <c r="C71">
         <v>2452</v>
       </c>
-      <c r="D71" s="41">
+      <c r="D71">
         <v>4.3</v>
       </c>
     </row>
@@ -61755,13 +61251,13 @@
       <c r="A72" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B72" s="41">
+      <c r="B72">
         <v>3</v>
       </c>
-      <c r="C72" s="41">
+      <c r="C72">
         <v>1946</v>
       </c>
-      <c r="D72" s="41">
+      <c r="D72">
         <v>5</v>
       </c>
     </row>
@@ -61769,13 +61265,13 @@
       <c r="A73" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B73" s="41">
+      <c r="B73">
         <v>6</v>
       </c>
-      <c r="C73" s="41">
+      <c r="C73">
         <v>359</v>
       </c>
-      <c r="D73" s="41">
+      <c r="D73">
         <v>4.5</v>
       </c>
     </row>
@@ -61783,13 +61279,13 @@
       <c r="A74" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B74" s="41">
+      <c r="B74">
         <v>5</v>
       </c>
-      <c r="C74" s="41">
+      <c r="C74">
         <v>1526</v>
       </c>
-      <c r="D74" s="41">
+      <c r="D74">
         <v>4.8</v>
       </c>
     </row>
@@ -61797,13 +61293,13 @@
       <c r="A75" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B75" s="41">
+      <c r="B75">
         <v>0</v>
       </c>
-      <c r="C75" s="41">
+      <c r="C75">
         <v>1721</v>
       </c>
-      <c r="D75" s="41">
+      <c r="D75">
         <v>3.8</v>
       </c>
     </row>
@@ -61811,13 +61307,13 @@
       <c r="A76" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B76" s="41">
+      <c r="B76">
         <v>9</v>
       </c>
-      <c r="C76" s="41">
+      <c r="C76">
         <v>1670</v>
       </c>
-      <c r="D76" s="41">
+      <c r="D76">
         <v>4.3</v>
       </c>
     </row>
@@ -61825,13 +61321,13 @@
       <c r="A77" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B77" s="41">
+      <c r="B77">
         <v>6</v>
       </c>
-      <c r="C77" s="41">
+      <c r="C77">
         <v>470</v>
       </c>
-      <c r="D77" s="41">
+      <c r="D77">
         <v>4</v>
       </c>
     </row>
@@ -61839,13 +61335,13 @@
       <c r="A78" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B78" s="41">
+      <c r="B78">
         <v>0</v>
       </c>
-      <c r="C78" s="41">
+      <c r="C78">
         <v>587</v>
       </c>
-      <c r="D78" s="41">
+      <c r="D78">
         <v>3.8</v>
       </c>
     </row>
@@ -61853,13 +61349,13 @@
       <c r="A79" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B79" s="41">
+      <c r="B79">
         <v>5</v>
       </c>
-      <c r="C79" s="41">
+      <c r="C79">
         <v>700</v>
       </c>
-      <c r="D79" s="41">
+      <c r="D79">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -61867,13 +61363,13 @@
       <c r="A80" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="41">
+      <c r="B80">
         <v>1</v>
       </c>
-      <c r="C80" s="41">
+      <c r="C80">
         <v>1010</v>
       </c>
-      <c r="D80" s="41">
+      <c r="D80">
         <v>3</v>
       </c>
     </row>
@@ -61881,13 +61377,13 @@
       <c r="A81" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B81" s="41">
+      <c r="B81">
         <v>14</v>
       </c>
-      <c r="C81" s="41">
+      <c r="C81">
         <v>472</v>
       </c>
-      <c r="D81" s="41">
+      <c r="D81">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -61895,13 +61391,13 @@
       <c r="A82" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B82" s="41">
+      <c r="B82">
         <v>0</v>
       </c>
-      <c r="C82" s="41">
+      <c r="C82">
         <v>153</v>
       </c>
-      <c r="D82" s="41">
+      <c r="D82">
         <v>3.8</v>
       </c>
     </row>
@@ -61909,13 +61405,13 @@
       <c r="A83" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B83" s="41">
+      <c r="B83">
         <v>0</v>
       </c>
-      <c r="C83" s="41">
+      <c r="C83">
         <v>238</v>
       </c>
-      <c r="D83" s="41">
+      <c r="D83">
         <v>3.8</v>
       </c>
     </row>
@@ -61923,13 +61419,13 @@
       <c r="A84" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B84" s="41">
+      <c r="B84">
         <v>9</v>
       </c>
-      <c r="C84" s="41">
+      <c r="C84">
         <v>819</v>
       </c>
-      <c r="D84" s="41">
+      <c r="D84">
         <v>4.2</v>
       </c>
     </row>
@@ -61937,13 +61433,13 @@
       <c r="A85" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="B85" s="41">
+      <c r="B85">
         <v>0</v>
       </c>
-      <c r="C85" s="41">
+      <c r="C85">
         <v>470</v>
       </c>
-      <c r="D85" s="41">
+      <c r="D85">
         <v>3.8</v>
       </c>
     </row>
@@ -61951,13 +61447,13 @@
       <c r="A86" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B86" s="41">
+      <c r="B86">
         <v>0</v>
       </c>
-      <c r="C86" s="41">
+      <c r="C86">
         <v>1880</v>
       </c>
-      <c r="D86" s="41">
+      <c r="D86">
         <v>3.8</v>
       </c>
     </row>
@@ -61965,13 +61461,13 @@
       <c r="A87" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B87" s="41">
+      <c r="B87">
         <v>0</v>
       </c>
-      <c r="C87" s="41">
+      <c r="C87">
         <v>40</v>
       </c>
-      <c r="D87" s="41">
+      <c r="D87">
         <v>3.8</v>
       </c>
     </row>
@@ -61979,13 +61475,13 @@
       <c r="A88" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B88" s="41">
+      <c r="B88">
         <v>10</v>
       </c>
-      <c r="C88" s="41">
+      <c r="C88">
         <v>528</v>
       </c>
-      <c r="D88" s="41">
+      <c r="D88">
         <v>3</v>
       </c>
     </row>
@@ -61993,13 +61489,13 @@
       <c r="A89" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B89" s="41">
+      <c r="B89">
         <v>0</v>
       </c>
-      <c r="C89" s="41">
+      <c r="C89">
         <v>233</v>
       </c>
-      <c r="D89" s="41">
+      <c r="D89">
         <v>3.8</v>
       </c>
     </row>
@@ -62007,13 +61503,13 @@
       <c r="A90" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="41">
+      <c r="B90">
         <v>0</v>
       </c>
-      <c r="C90" s="41">
+      <c r="C90">
         <v>101</v>
       </c>
-      <c r="D90" s="41">
+      <c r="D90">
         <v>3.8</v>
       </c>
     </row>
@@ -62021,13 +61517,13 @@
       <c r="A91" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B91" s="41">
+      <c r="B91">
         <v>2</v>
       </c>
-      <c r="C91" s="41">
+      <c r="C91">
         <v>165</v>
       </c>
-      <c r="D91" s="41">
+      <c r="D91">
         <v>5</v>
       </c>
     </row>
@@ -62035,13 +61531,13 @@
       <c r="A92" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B92" s="41">
+      <c r="B92">
         <v>0</v>
       </c>
-      <c r="C92" s="41">
+      <c r="C92">
         <v>39</v>
       </c>
-      <c r="D92" s="41">
+      <c r="D92">
         <v>3.8</v>
       </c>
     </row>
@@ -62049,13 +61545,13 @@
       <c r="A93" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B93" s="41">
+      <c r="B93">
         <v>0</v>
       </c>
-      <c r="C93" s="41">
+      <c r="C93">
         <v>85</v>
       </c>
-      <c r="D93" s="41">
+      <c r="D93">
         <v>3.8</v>
       </c>
     </row>
@@ -62063,13 +61559,13 @@
       <c r="A94" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B94" s="41">
+      <c r="B94">
         <v>5</v>
       </c>
-      <c r="C94" s="41">
+      <c r="C94">
         <v>616</v>
       </c>
-      <c r="D94" s="41">
+      <c r="D94">
         <v>4.8</v>
       </c>
     </row>
@@ -62077,13 +61573,13 @@
       <c r="A95" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B95" s="41">
+      <c r="B95">
         <v>24</v>
       </c>
-      <c r="C95" s="41">
+      <c r="C95">
         <v>724</v>
       </c>
-      <c r="D95" s="41">
+      <c r="D95">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -62091,13 +61587,13 @@
       <c r="A96" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="B96" s="41">
+      <c r="B96">
         <v>0</v>
       </c>
-      <c r="C96" s="41">
+      <c r="C96">
         <v>37</v>
       </c>
-      <c r="D96" s="41">
+      <c r="D96">
         <v>3.8</v>
       </c>
     </row>
@@ -62105,13 +61601,13 @@
       <c r="A97" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B97" s="41">
+      <c r="B97">
         <v>12</v>
       </c>
-      <c r="C97" s="41">
+      <c r="C97">
         <v>640</v>
       </c>
-      <c r="D97" s="41">
+      <c r="D97">
         <v>3.8</v>
       </c>
     </row>
@@ -62119,13 +61615,13 @@
       <c r="A98" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="B98" s="41">
+      <c r="B98">
         <v>0</v>
       </c>
-      <c r="C98" s="41">
+      <c r="C98">
         <v>1200</v>
       </c>
-      <c r="D98" s="41">
+      <c r="D98">
         <v>3.8</v>
       </c>
     </row>
@@ -62133,13 +61629,13 @@
       <c r="A99" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B99" s="41">
+      <c r="B99">
         <v>36</v>
       </c>
-      <c r="C99" s="41">
+      <c r="C99">
         <v>267</v>
       </c>
-      <c r="D99" s="41">
+      <c r="D99">
         <v>4.3</v>
       </c>
     </row>
@@ -62147,13 +61643,13 @@
       <c r="A100" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B100" s="41">
+      <c r="B100">
         <v>0</v>
       </c>
-      <c r="C100" s="41">
+      <c r="C100">
         <v>95</v>
       </c>
-      <c r="D100" s="41">
+      <c r="D100">
         <v>3.8</v>
       </c>
     </row>
@@ -62161,13 +61657,13 @@
       <c r="A101" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B101" s="41">
+      <c r="B101">
         <v>0</v>
       </c>
-      <c r="C101" s="41">
+      <c r="C101">
         <v>37</v>
       </c>
-      <c r="D101" s="41">
+      <c r="D101">
         <v>3.8</v>
       </c>
     </row>
@@ -62175,13 +61671,13 @@
       <c r="A102" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B102" s="41">
+      <c r="B102">
         <v>0</v>
       </c>
-      <c r="C102" s="41">
+      <c r="C102">
         <v>41</v>
       </c>
-      <c r="D102" s="41">
+      <c r="D102">
         <v>3.8</v>
       </c>
     </row>
@@ -62189,13 +61685,13 @@
       <c r="A103" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B103" s="41">
+      <c r="B103">
         <v>0</v>
       </c>
-      <c r="C103" s="41">
+      <c r="C103">
         <v>401</v>
       </c>
-      <c r="D103" s="41">
+      <c r="D103">
         <v>3.8</v>
       </c>
     </row>
@@ -62203,13 +61699,13 @@
       <c r="A104" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B104" s="41">
+      <c r="B104">
         <v>0</v>
       </c>
-      <c r="C104" s="41">
+      <c r="C104">
         <v>31</v>
       </c>
-      <c r="D104" s="41">
+      <c r="D104">
         <v>3.8</v>
       </c>
     </row>
@@ -62217,13 +61713,13 @@
       <c r="A105" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B105" s="41">
+      <c r="B105">
         <v>16</v>
       </c>
-      <c r="C105" s="41">
+      <c r="C105">
         <v>335</v>
       </c>
-      <c r="D105" s="41">
+      <c r="D105">
         <v>2.9</v>
       </c>
     </row>
@@ -62231,13 +61727,13 @@
       <c r="A106" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B106" s="41">
+      <c r="B106">
         <v>0</v>
       </c>
-      <c r="C106" s="41">
+      <c r="C106">
         <v>850</v>
       </c>
-      <c r="D106" s="41">
+      <c r="D106">
         <v>3.8</v>
       </c>
     </row>
@@ -62245,13 +61741,13 @@
       <c r="A107" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B107" s="41">
+      <c r="B107">
         <v>0</v>
       </c>
-      <c r="C107" s="41">
+      <c r="C107">
         <v>134</v>
       </c>
-      <c r="D107" s="41">
+      <c r="D107">
         <v>3.8</v>
       </c>
     </row>
@@ -62259,13 +61755,13 @@
       <c r="A108" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B108" s="41">
+      <c r="B108">
         <v>1</v>
       </c>
-      <c r="C108" s="41">
+      <c r="C108">
         <v>450</v>
       </c>
-      <c r="D108" s="41">
+      <c r="D108">
         <v>2</v>
       </c>
     </row>
@@ -62273,13 +61769,13 @@
       <c r="A109" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="B109" s="41">
+      <c r="B109">
         <v>0</v>
       </c>
-      <c r="C109" s="41">
+      <c r="C109">
         <v>231</v>
       </c>
-      <c r="D109" s="41">
+      <c r="D109">
         <v>3.8</v>
       </c>
     </row>
@@ -62287,13 +61783,13 @@
       <c r="A110" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B110" s="41">
+      <c r="B110">
         <v>6</v>
       </c>
-      <c r="C110" s="41">
+      <c r="C110">
         <v>257</v>
       </c>
-      <c r="D110" s="41">
+      <c r="D110">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -62301,13 +61797,13 @@
       <c r="A111" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B111" s="41">
+      <c r="B111">
         <v>7</v>
       </c>
-      <c r="C111" s="41">
+      <c r="C111">
         <v>919</v>
       </c>
-      <c r="D111" s="41">
+      <c r="D111">
         <v>4.7</v>
       </c>
     </row>
@@ -62315,13 +61811,13 @@
       <c r="A112" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B112" s="41">
+      <c r="B112">
         <v>5</v>
       </c>
-      <c r="C112" s="41">
+      <c r="C112">
         <v>390</v>
       </c>
-      <c r="D112" s="41">
+      <c r="D112">
         <v>3</v>
       </c>
     </row>
@@ -62329,13 +61825,13 @@
       <c r="A113" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B113" s="41">
+      <c r="B113">
         <v>723</v>
       </c>
-      <c r="C113" s="41">
+      <c r="C113">
         <v>68615</v>
       </c>
-      <c r="D113" s="41">
+      <c r="D113">
         <v>418.80000000000041</v>
       </c>
     </row>
@@ -62360,10 +61856,10 @@
       <c r="B117" s="4">
         <v>3.6966101694915277</v>
       </c>
-      <c r="C117" s="41">
+      <c r="C117">
         <v>59</v>
       </c>
-      <c r="D117" s="41">
+      <c r="D117">
         <v>59</v>
       </c>
     </row>
@@ -62374,10 +61870,10 @@
       <c r="B118" s="4">
         <v>3.7833333333333323</v>
       </c>
-      <c r="C118" s="41">
+      <c r="C118">
         <v>18</v>
       </c>
-      <c r="D118" s="41">
+      <c r="D118">
         <v>18</v>
       </c>
     </row>
@@ -62388,10 +61884,10 @@
       <c r="B119" s="4">
         <v>4.1437500000000007</v>
       </c>
-      <c r="C119" s="41">
+      <c r="C119">
         <v>32</v>
       </c>
-      <c r="D119" s="41">
+      <c r="D119">
         <v>32</v>
       </c>
     </row>
@@ -62402,10 +61898,10 @@
       <c r="B120" s="4">
         <v>3.8422018348623892</v>
       </c>
-      <c r="C120" s="41">
+      <c r="C120">
         <v>109</v>
       </c>
-      <c r="D120" s="41">
+      <c r="D120">
         <v>109</v>
       </c>
     </row>
@@ -64227,16 +63723,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD3 A134:XFD150 D122:XFD133 E117:XFD121 A114:XFD116 A4:A113 E4:XFD113 A265:XFD269 D151:XFD151 F152:XFD261 A168:A264 C262:XFD264 A384:XFD1048576 D270:XFD286 A287:A383 C287:XFD383">
-    <cfRule type="top10" dxfId="23" priority="4" rank="10"/>
+    <cfRule type="top10" dxfId="4" priority="4" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="B4:B113">
-    <cfRule type="top10" dxfId="22" priority="3" rank="10"/>
+    <cfRule type="top10" dxfId="3" priority="3" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="D4:D113">
-    <cfRule type="top10" dxfId="21" priority="2" rank="5"/>
+    <cfRule type="top10" dxfId="2" priority="2" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="D4:D113">
-    <cfRule type="top10" dxfId="20" priority="1" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="1" priority="1" bottom="1" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId5"/>
